--- a/traduction_disarm.xlsx
+++ b/traduction_disarm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameunier\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5DD4EE-279D-4CC4-A97C-44688BF229B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9752FD28-DBB2-411D-8DF3-5262B01E9221}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="1980" xr2:uid="{8E32BDED-AD53-416D-B49A-9281C55064B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="615">
   <si>
     <t>T0114.001 Social media</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>T0131.002 Post Borderline Content</t>
-  </si>
-  <si>
-    <t>Pas de traduction parce qu'on ne voit pas la différence avec l'astroturfing</t>
   </si>
   <si>
     <t>T0100.002: Co-Opt Grassroots Groups</t>
@@ -152,10 +149,6 @@
 Définir des objectifs intermédiaires permettant d'atteindre l'état final recherché. </t>
   </si>
   <si>
-    <t>TA01: Planification de la stratégie
-Plan Strategy</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Création ou acquisition de textes, d’images et de tous contenus nécessaires au soutien des méta récits et des récits locaux ou secondaires.</t>
   </si>
@@ -182,17 +175,9 @@
     <t>T0088.001 Générer des contenus audio-visuels via l'IA (Deepfakes)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Créer ou acquérir des vecteurs de communication (comptes de réseaux sociaux, chaînes de médias, fermes à trolls)</t>
-  </si>
-  <si>
     <t xml:space="preserve">T0007 Créer des pages et des groupes de réseaux sociaux </t>
   </si>
   <si>
-    <t xml:space="preserve">T0014.002 Lever des fonds auprès d'agents ignorants 
-Obtenir des financements auprès d'agents ignorants à travers des scams ou des fausses donations. </t>
-  </si>
-  <si>
     <t>T0090.001 Créer des comptes anonymes</t>
   </si>
   <si>
@@ -260,12 +245,6 @@
     <t xml:space="preserve">T0117 Attirer les médias traditionnels </t>
   </si>
   <si>
-    <t>Diffuser du contenu pour un large public</t>
-  </si>
-  <si>
-    <t>Maximiser l'exposition de l'audience cible aux contenus de la campagne</t>
-  </si>
-  <si>
     <t xml:space="preserve">T0119.001 Publier de manière cross-plateformes sur des groupes </t>
   </si>
   <si>
@@ -281,9 +260,6 @@
     <t xml:space="preserve">T0120.002 Utiliser des tournois et des prix </t>
   </si>
   <si>
-    <t xml:space="preserve">Actions entreprises, dans l'espace numérique, par une opération d'influence pour nuire à ses adversaires </t>
-  </si>
-  <si>
     <t xml:space="preserve">T0048.002 Harceler les gens sur la base de leur identité </t>
   </si>
   <si>
@@ -317,18 +293,12 @@
     <t>Mobiliser les engagements en ligne pour mettre en place des actions hors-ligne.</t>
   </si>
   <si>
-    <t>Toutes les actions prises pour permettre aux artefacts de la campagne de rester disponible dans l'environnement informationnel</t>
-  </si>
-  <si>
     <t xml:space="preserve">T0128.001 Utiliser des pseudonymes </t>
   </si>
   <si>
     <t xml:space="preserve">T0129 Dissimuler l'activité opérationnelle </t>
   </si>
   <si>
-    <t>T0129.005 Se coordonner sur des réseaux cryptés/fermés</t>
-  </si>
-  <si>
     <t xml:space="preserve">T0129.007  Supprimer des comptes et/ou l'activité </t>
   </si>
   <si>
@@ -348,69 +318,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">TA02: Planification des objectifs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Plan Objectives</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA13: Analyse des publics cibles 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Target Audience Analysis</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA14: Elaboration des récits 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Develop Narratives</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA06 Fabrication du contenu 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="20"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Develop Content</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0073: Determine Target Audiences
 </t>
     </r>
@@ -434,26 +341,6 @@
         <rFont val="Marianne"/>
       </rPr>
       <t>Organise citizens around pro-state messaging. Coordinate paid or volunteer groups to push state propaganda.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>T0002 Faciliter la propagande étatique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Mobiliser les citoyens autour des messages en faveur de l'Etat. Coordonner des groupes payés ou volontaires pour pousser la propagande étatique.</t>
     </r>
   </si>
   <si>
@@ -659,20 +546,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0029 Sondages en ligne 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Créer des faux sondages en ligne ou manipuler des sondages existants. C'est une tactique de récupération de données sur des audiences ciblées. À ce stade, les pétitions sont incluses dans cette technique, faute d'autre endroit dans la matrice. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -865,20 +738,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0059 Avoir une vision à long terme
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Cela fait référence à deux phénomènes : 1. planifier la communication et lui permettre de se diffuser naturellement sans amplification artificielle. 2. développer une série de narratifs en apparence déconnectés afin qu'ils se rejoignent un jour dans un même narratif. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0132 Measure Performance
 </t>
     </r>
@@ -977,26 +836,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>T0074 Déterminer les finalités stratégiques</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Définir l'état final recherché que la campagne vise à atteindre. Par exemple, l'obtention d'une position avantageuse vis-à-vis des compétiteurs en termes de pouvoir ou d'influence. Les finalités stratégiques peuvent être d'améliorer ou simplement de maintenir une position existante. Cette compétition se déroule dans la sphère publique aussi bien dans les domaines militaire, diplomatique, politique, économique ou idéologique. Elle peut se jouer entre des groupes armés, des Etats nations, des partis politiques, des groupes d'intérêt ou des individus. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0074.001: Geopolitical Advantage
 </t>
     </r>
@@ -1323,20 +1162,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0043.001  Utiliser des applications de chats cryptées 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Signal, WhatsApp, Discord, Wire</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0039 Bait legitimate influencers
 </t>
     </r>
@@ -1459,26 +1284,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>T0057.001 Payer pour des actions physiques</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Il s'agit de payer des individus pour conduire des actions physiques afin de créer des situations spécifiques et les présenter de manière à ce qu'elles soutiennent les narratifs de la campagne (ex. payer un groupe d'individus pour brûler une voiture). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="Marianne"/>
@@ -2059,26 +1864,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">T0074.003 Gain économique
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Obtenir une position favorable domestiquement ou internationalement dans les milieux du commerce, des échanges, de la finance et de l'industrie.  Les acteurs impliqués peuvent être les Etats-nations, les corporations, les banques, les groupements industriels,  les cartels. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0076: Distort
 </t>
     </r>
@@ -2493,26 +2278,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>T0061 Vendre de la marchandise</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">
-Il s'agit de relayer le message ou le narratif dans l'espace physique tout en gagnant de l'argent. Ex. Casquette MAGA. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>T0128.002 Conceal Network Identity
 C</t>
     </r>
@@ -2652,59 +2417,39 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>T0077 Distraire</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">T0072.005: Political Segmentation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>An influence operation may target populations based on their political affiliations, especially when aiming to manipulate voting or change policy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0072.005 Segmentation politique
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Cibler les populations selon leurs affinités politiques, en particulier pendant les périodes électorales ou lors d'un mouvement de contestation politique.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Marianne"/>
       </rPr>
       <t xml:space="preserve">
-Détourner l'attention vers un autre récit, un autre acteur, par exemple en accusant ses contradicteurs de faire ce dont on est accusé (exemple des violences policières).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0072.005: Political Segmentation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>An influence operation may target populations based on their political affiliations, especially when aiming to manipulate voting or change policy.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0072.005 Segmentation politique
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Cibler les populations selon leurs affinités politiques, en particulier pendant les périodes électorales ou lors d'un mouvement de contestation politique.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -2777,20 +2522,6 @@
         <rFont val="Marianne"/>
       </rPr>
       <t>Raising funds from malign actors may include contributions from foreign agents, cutouts or proxies, shell companies, dark money groups, etc.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0098.002 Exploiter des sites d'information inauthentiques 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Plutôt que de créer de nouveaux sites, il s'agit de réutiliser des sites existants liés ou non liés au dispositif de la campagne</t>
     </r>
   </si>
   <si>
@@ -2991,26 +2722,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>T0078 Décourager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">
-Décourager les critiques en menaçant les contradicteurs (menacer des journalistes ou des organes de presses pour les empecher de produire un reportage).</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0080: Map Target Audience Information Environment
 </t>
     </r>
@@ -3731,20 +3442,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0113 Engager une entreprise d'analyse de données commerciales 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Il s'agit de recourir aux services d'une entreprise d'analyse de données commerciales. Celle-ci collecte les activités des audiences cibles et évalue leurs données pour définir des tendances afin de personnaliser les contenus de la campagne en fonction des préférences de l'audience ciblée (ex. tendances comportementales). Exemple : Cambridge Analytica. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -3855,20 +3552,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0128.005 Changer le noms des ressources informationnelles
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Il s'agit de changer les noms ou les marque des ressources informationnels (comptes, les canaux, les pages, etc.) afin que ceux-ci puissent continuer de diffuser les narratifs de l'opération.  </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -4379,20 +4062,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0104.004 Des réseaux basés sur les centres d'intérêt
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Gettr, Parler, Truth Social </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0119 Cross-Posting
 </t>
     </r>
@@ -5345,20 +5014,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0105 Réseaux de partage de médias 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Des services dont la fonction primaire est d'héberger et de partager des types spécifiques de médias. Exemple : Instagram, Snapchat, TikTok, Youtube et Soundcloud. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0105 Réseau de partage de photos 
 </t>
     </r>
@@ -5570,38 +5225,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0125 Filtrage des plateformes 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Une conversation qui débute sur une plateforme peut se continuer sur un autre canal, une autre chaine, un autre réseau social. Les intervenants qui la rejoignent ne sont pas au fait du contexte qui l'a faite émerger, surtout s'ils non plus accès à la plateformed'origine.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Cf.  Joan Donovan https://www.hks.harvard.edu/publications/disinformation-design-use-evidence-collages-and-platform-filtering-media-manipulation)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0129.006 Deny involvement
 </t>
     </r>
@@ -5873,26 +5496,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">T0136.004 Booster la réputation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Accroître l'estime du public pour l'acteur, par exemple en améliorant l'image ou la prestance de l'acteur. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0081.005 Identify Existing Conspiracy Narratives/Suspicions
 </t>
     </r>
@@ -5998,20 +5601,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0106.001 Forums anonymes 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Exemples : 4chan, 9chan</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0122 Direct Users to Alternative Platforms
 </t>
     </r>
@@ -6021,20 +5610,6 @@
         <rFont val="Marianne"/>
       </rPr>
       <t>Direct users to alternative platforms refers to encouraging users to move from the platform on which they initially viewed operation content and engage with content on alternate information channels, including separate social media channels and inauthentic websites. An operation may drive users to alternative platforms to diversify its information channels and ensure the target audience knows where to access operation content if the initial platform suspends, flags, or otherwise removes original operation assets and content.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0122 Rediriger les utilisateurs vers des plateformes alternatives 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Il s'agit d'encourager les utilisateurs à réagir aux contenus de la campagne sur d'autres plateformes que celle où ils ont d'abord été exposés à ces contenus. Cela permet de diversifier les canaux d'information et de s'assurer que l'audience cible a bien toujours accès aux contenus de l'opération si la plateforme initiale est suspendue. </t>
     </r>
   </si>
   <si>
@@ -6192,20 +5767,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0107 Réseau de collection de contenus de médias
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Exemples : Pinterest, Flipboard. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0129.009 Remove Post Origins
 </t>
     </r>
@@ -6390,26 +5951,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">T0093.001 Financer des proxies </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">
-Cela permet d'externaliser l'opération et ainsi soit de réduire la charge de travail, soit d'avoir un relais local. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0108  Réseaux de blogs et de publications
 </t>
     </r>
@@ -7098,20 +6639,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0130.004 Utiliser la cryptomonnaie 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Exemples : Bitcoin, Monero, Etherium. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0137.003: Raise Funds
 </t>
     </r>
@@ -7259,26 +6786,6 @@
         <rFont val="Marianne"/>
       </rPr>
       <t>Offer products for sale under false pretenses. Campaigns may hijack or create causes built on disinformation to sell promotional merchandise. Or charlatans may amplify victims’ unfounded fears to sell them items of questionable utility such as supplements or survival gear.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">T0137.004 Vendre des objets avec de faux prétextes
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Les campagnes peuvent pirater ou créer des causes construites sur de la désinformation pour vendre des marchandises, ou exploiter les peurs infondées des individus pour leur vendre des produits à l'utilité questionnable. </t>
     </r>
   </si>
   <si>
@@ -7386,20 +6893,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0131 Exploiter les conditions d’utilisation/modération de contenu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Exploiter les éventuelles faiblesses dans les CGU et la modération des plateformes afin d'éviter les actions de celle-ci (retrait des contenus par exemple)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0131.001 Legacy web content
 </t>
     </r>
@@ -7721,26 +7214,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">T0139.001 Décourager
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Faire en sorte que la cible soit réticente à agir. Les manipulateurs  exploitent la désinformation afin que la cible s'interroge sur l'utilité, la légalité ou la moralité de ses actions. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0139.002: Silence
 </t>
     </r>
@@ -8374,53 +7847,6 @@
         <color theme="1"/>
         <rFont val="Marianne"/>
       </rPr>
-      <t xml:space="preserve">T0019.002 Pirater les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>hashtags</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">
-Pirater des </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>hashtags</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve"> légitimes pour faire la promotion de son propre agenda. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
       <t xml:space="preserve">T0013 Créer des sites </t>
     </r>
     <r>
@@ -8565,70 +7991,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0104.005  Utiliser des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>hashtags</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve"> existants 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Utiliser des </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>hashtags</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve"> existants pour un évènement spécifique. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0106 Forums de discussion 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Plateformes pour trouver, discuter et partager de l'information ou des opinions. Exemples : Reddit, Quora, Digg… </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">T0044 Semer le doute 
 </t>
     </r>
@@ -8643,7 +8005,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">TA08 Amorçage de la campagne 
+      <t xml:space="preserve">TA09 Diffuser les contenus
 </t>
     </r>
     <r>
@@ -8653,12 +8015,12 @@
         <color theme="0"/>
         <rFont val="Marianne"/>
       </rPr>
-      <t>Conduct Pump Priming</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA09 Diffuser les contenus
+      <t>Deliver Content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA17 Maximiser l'exposition 
 </t>
     </r>
     <r>
@@ -8668,12 +8030,329 @@
         <color theme="0"/>
         <rFont val="Marianne"/>
       </rPr>
-      <t>Deliver Content</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA17 Maximiser l'exposition 
+      <t>Maximize Exposure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0115.001 Partager des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>memes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Par leurs effets similaires, les caricatures peuvent entrer également dans cette catégorie. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0049.002 Pirater des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>hashtags</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve"> existants 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Détourner un </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>hashtag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve"> existant afin de générer de la visibilité. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0121.001  Contourner le blocage de contenu 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Il s'agit de techniques permettant l'accès au contenu bloqué. Par exemple: sites miroirs créés par RT et </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Sputnik </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>; usage de VPN ; usage de CDN (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Content Delivery Network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve"> qui permet d'éviter le filtrage par adresse IP). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0047 Censurer les réseaux sociaux comme force politique (garde fou/pilier de contre-pouvoir)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Il s'agit d'exercer un </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>lobbying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve"> afin d'empêcher les plateformes de modérer leur réseau social.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0048 Harceler 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Il s'agit d'utiliser des techniques d'intimidation (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>cyberbullying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>doxing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">) pour décourager les opposants d'exprimer leur désaccord. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0048.001 Pratiquer la culture de l'effacement 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>La culture de l'effacement (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Cancel Culture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">) est une pratique consistant à dénoncer publiquement, en vue de leur ostracisation, des individus, groupes ou institutions responsables d'actes, de comportements ou de propos perçus comme inadmissibles. Sur les réseaux sociaux, l'opérateur d'une campagne peut mettre l'accent sur un comportement controversé de son adversaire et proposer comme alternative son propre contenu. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0048.003 Menacer de divulgation malveillante 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>La divulgation malveillante (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>doxing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">) consiste en la diffusion d'informations personnelles concernant un tiers qui est opérée sans son consentement et l'expose à un risque. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0048.004  Divulger de manière malveillante 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>La divulgation malveillante (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>doxing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">) consiste en la diffusion d'informations personnelles concernant un tiers qui est opérée sans son consentement et l'expose à un risque. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0123.002 Bloquer le contenu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Il s'agit des actions visant à restreindre l'accès à internet ou à rendre l'accès de certaines zones d'internet inaccessibles. Cette restriction peut s'appliquer soit au réseau hébergeant le contenu soit à la nature du contenu diffusé. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA11  Persister dans l'environnement informationnel
 </t>
     </r>
     <r>
@@ -8683,428 +8362,12 @@
         <color theme="0"/>
         <rFont val="Marianne"/>
       </rPr>
-      <t>Maximize Exposure</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0115 Publier du contenu via ses propres ressources médiatiques 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Exemple : RT, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Sputnik</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">, CGTN, TRT et aussi les sites comme </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Observateur Continental</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Planete360</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">. Cela peut-être aussi des comptes et pages de réseaux sociaux. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0115.001 Partager des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>memes</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Par leurs effets similaires, les caricatures peuvent entrer également dans cette catégorie. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Amplifier et manipuler via des trolls 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Utiliser des trolls précédemment créés dans la phase de préparation (faux profils, comptes marionnettes). Ces trolls peuvent soutenir des individus ou des narratifs appartenant à tout l'échiquier politique. Ils peuvent soutenir plus particulièrement des contenus locaux et faire la promotion d'utilisateurs sur les RS qui produisent leurs propres contenus clivants. Il est en effet plus facile d'amplifier des contenus existants que d'en créer de nouveaux. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0049.002 Pirater des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>hashtags</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve"> existants 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Détourner un </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>hashtag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve"> existant afin de générer de la visibilité. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0121.001  Contourner le blocage de contenu 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Il s'agit de techniques permettant l'accès au contenu bloqué. Par exemple: sites miroirs créés par RT et </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Sputnik </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>; usage de VPN ; usage de CDN (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Content Delivery Network</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve"> qui permet d'éviter le filtrage par adresse IP). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0047 Censurer les réseaux sociaux comme force politique (garde fou/pilier de contre-pouvoir)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Il s'agit d'exercer un </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>lobbying</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve"> afin d'empêcher les plateformes de modérer leur réseau social.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0048 Harceler 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Il s'agit d'utiliser des techniques d'intimidation (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>cyberbullying</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>doxing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">) pour décourager les opposants d'exprimer leur désaccord. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0048.001 Pratiquer la culture de l'effacement 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>La culture de l'effacement (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Cancel Culture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">) est une pratique consistant à dénoncer publiquement, en vue de leur ostracisation, des individus, groupes ou institutions responsables d'actes, de comportements ou de propos perçus comme inadmissibles. Sur les réseaux sociaux, l'opérateur d'une campagne peut mettre l'accent sur un comportement controversé de son adversaire et proposer comme alternative son propre contenu. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0048.003 Menacer de divulgation malveillante 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>La divulgation malveillante (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>doxing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">) consiste en la diffusion d'informations personnelles concernant un tiers qui est opérée sans son consentement et l'expose à un risque. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0048.004  Divulger de manière malveillante 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>La divulgation malveillante (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>doxing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">) consiste en la diffusion d'informations personnelles concernant un tiers qui est opérée sans son consentement et l'expose à un risque. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0123.002 Bloquer le contenu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Il s'agit des actions visant à restreindre l'accès à internet ou à rendre l'accès de certaines zones d'internet inaccessibles. Cette restriction peut s'appliquer soit au réseau hébergeant le contenu soit à la nature du contenu diffusé. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>T0017 Lever des fonds</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">
-Il s'agit d'un effort systématique de recherche d'un soutien financier en ligne pour une action caritative, une cause ou toute autre entreprise afin de faire la promotion de la campagne. Exemple : Tipee, Patreon, GoFundme. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA11  Persister dans l'environnement informationnel
+      <t>Persist in the Information Environment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA12 Mesurer l'efficacité de la campagne
 </t>
     </r>
     <r>
@@ -9114,12 +8377,395 @@
         <color theme="0"/>
         <rFont val="Marianne"/>
       </rPr>
-      <t>Persist in the Information Environment</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA12 Mesurer l'efficacité de la campagne
+      <t>Assess Effectiveness</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0128.002  Dissimuler l'identité du réseau </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">
+Il s'agit de cacher complètement l'existence d'un réseau de l'opération. Cela permet de nier son existence. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0123.004 Opérer une redirection de serveur 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Un serveur peut opérer une redirection automatique de l'utilisateur d'une URL à une autre. Cela peut empêcher les audiences d'un site d'y avoir accès.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA16: Établir la confiance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Establish Legitimacy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA18 Causer du tort en ligne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="20"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Drive Online Harms</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA10 Mener des activités hors-ligne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Drive Offline Activity</t>
+    </r>
+  </si>
+  <si>
+    <t>TA01 : Planifier la stratégie
+Plan Strategy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA02 : Planifier les objectifs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Plan Objectives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T0077 Distraire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">
+Détourner l'attention vers un autre récit, un autre acteur, par exemple en accusant ses contradicteurs de faire ce dont on est accusé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T0078 Décourager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">
+Décourager les critiques en menaçant les contradicteurs (par exemple en menaçant des journalistes ou des organes de presses pour les empecher de produire un reportage).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">T0137.004 Vendre des objets sous de faux prétextes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Les campagnes peuvent pirater ou créer des causes construites sur de la désinformation pour vendre des marchandises, ou exploiter les peurs infondées des individus pour leur vendre des produits à l'utilité questionnable. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA13: Analyser les publics cibles 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Target Audience Analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA06 Fabriquer le contenu 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Develop Content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">T0019.002 Pirater des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>hashtags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">
+Pirater des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>hashtags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve"> légitimes pour faire la promotion de son propre agenda. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA15 Mettre en place des ressources informationnelles 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Establish Social Asset</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">T0014.002 Lever des fonds auprès d'agents ignorants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">
+Obtenir des financements auprès d'agents ignorants à travers des scams ou des fausses donations. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">T0093.001 Financer des proxies </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">
+Cela permet d'externaliser l'opération et ainsi, soit de réduire la charge de travail, soit d'avoir un relais local. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA05: Microcibler
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Microtarget</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA07 Sélectionner les canaux et les fonctionnalités
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Select Channels and Affordances</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0029 Sondages en ligne 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Créer des faux sondages en ligne ou manipuler des sondages existants. C'est une tactique de récupération de données sur des audiences ciblées. Pour le moment, les pétitions sont incluses dans cette technique. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0105 Réseaux de partage de médias 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Des services dont la fonction primaire est d'héberger et de partager des types spécifiques de médias. Par exemple : Instagram, Snapchat, TikTok, Youtube et Soundcloud. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0106 Forums de discussion 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Plateformes pour trouver, discuter et partager de l'information ou des opinions. Par exemple : Reddit, Quora, Digg… </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0106.001 Forums anonymes 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Exemples : 4chan, 9chan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0107 Réseau de collection de contenus de médias
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Par exemple : Pinterest, Flipboard. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA08 Amorcer la campagne 
 </t>
     </r>
     <r>
@@ -9129,21 +8775,144 @@
         <color theme="0"/>
         <rFont val="Marianne"/>
       </rPr>
-      <t>Assess Effectiveness</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T0128.002  Dissimuler l'identité du réseau </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>Conduct Pump Priming</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0113 Engager une entreprise d'analyse de données commerciales 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Il s'agit de recourir aux services d'une entreprise d'analyse de données commerciales. Celle-ci collecte les activités des audiences cibles et évalue leurs données pour définir des tendances afin de personnaliser les contenus de la campagne en fonction des préférences de l'audience ciblée (ex. tendances comportementales). Par exemple : Cambridge Analytica. </t>
+    </r>
+  </si>
+  <si>
+    <t>Diffuser du contenu pour un large public.</t>
+  </si>
+  <si>
+    <t>Maximiser l'exposition de l'audience cible aux contenus de la campagne.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amplifier et manipuler via des trolls 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Utiliser des trolls précédemment créés dans la phase de préparation (faux profils, comptes marionnettes). Ces trolls peuvent soutenir des individus ou des narratifs appartenant à tout l'échiquier politique. Ils peuvent soutenir plus particulièrement des contenus locaux et faire la promotion d'utilisateurs sur les réseaux sociaux qui produisent leurs propres contenus clivants. Il est en effet plus facile d'amplifier des contenus existants que d'en créer de nouveaux. </t>
+    </r>
+  </si>
+  <si>
+    <t>Pas de traduction parce que la différence avec l'astroturfing n'est pas claire.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0125 Filtrage des plateformes 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Une conversation qui débute sur une plateforme peut se continuer sur un autre canal, une autre chaine, un autre réseau social. Les intervenants qui la rejoignent ne sont pas au fait du contexte qui l'a faite émerger, surtout s'ils non plus accès à la plateformed'origine.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Marianne"/>
       </rPr>
       <t xml:space="preserve">
-Il s'agit de cacher complètement l'existence d'un réseau de l'opération. Cela permet de nier son existence. </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Cf. Joan Donovan https://www.hks.harvard.edu/publications/disinformation-design-use-evidence-collages-and-platform-filtering-media-manipulation)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>T0057.001 Payer pour des actions physiques</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Il s'agit de payer des individus pour conduire des actions physiques afin de créer des situations spécifiques et les présenter de manière à ce qu'elles soutiennent les narratifs de la campagne (par exemple, payer un groupe d'individus pour brûler une voiture). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>T0061 Vendre de la marchandise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">
+Il s'agit de relayer le message ou le narratif dans l'espace physique tout en gagnant de l'argent. Par exemple, Casquette MAGA. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0059 Avoir une vision à long terme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Cela fait référence à deux phénomènes : 1. planifier la communication et lui permettre de se diffuser naturellement sans amplification artificielle. 2. Développer une série de narratifs en apparence déconnectés afin qu'ils se rejoignent un jour dans un même narratif. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0128.005 Changer le noms des ressources informationnelles
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Il s'agit de changer les noms ou les marque des ressources informationnels (comptes, canaux, pages, etc.) afin que ceux-ci puissent continuer de diffuser les narratifs de l'opération.  </t>
     </r>
   </si>
   <si>
@@ -9157,7 +8926,7 @@
         <color theme="1"/>
         <rFont val="Marianne"/>
       </rPr>
-      <t xml:space="preserve">Il s'agit de reprendre du contenu légitime ou externe à l'opération afin de déguiser les contenus de la campagne. Exemple : contenus mode/cuisine. </t>
+      <t xml:space="preserve">Il s'agit de reprendre du contenu légitime ou externe à l'opération afin de déguiser les contenus de la campagne. Par exemple : contenus mode/cuisine. </t>
     </r>
   </si>
   <si>
@@ -9171,7 +8940,7 @@
         <color theme="1"/>
         <rFont val="Marianne"/>
       </rPr>
-      <t xml:space="preserve">Il s'agit d'empêcher la mise à jour du véritable parrain de la campagne. Voir la campagne menée par des comptes venezueliesn parrainés par la Russie lors du référendum sur l'indépendance de la Catalogne en 2017.  </t>
+      <t xml:space="preserve">Il s'agit d'empêcher la mise à jour du véritable parrain de la campagne. Voir, par exemple, la campagne menée par des comptes venezueliens parrainés par la Russie lors du référendum sur l'indépendance de la Catalogne en 2017.  </t>
     </r>
     <r>
       <rPr>
@@ -9193,115 +8962,332 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">T0123.004 Opérer une redirection de serveur 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t xml:space="preserve">Un serveur peut opérer une redirection automatique de l'utilisateur d'une URL à une autre. Cela peut empêcher les audiences d'un site d'y avoir accès.  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA15 Mise en place des ressources informationnelles 
-</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">T0130.004 Utiliser la cryptomonnaie 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Par exemple : Bitcoin, Monero, Etherium. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0131 Exploiter les conditions d’utilisation/modération de contenu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Exploiter les éventuelles faiblesses dans les CGU et la modération des plateformes afin d'éviter les actions de celle-ci (retrait des contenus par exemple).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>T0002 Faciliter la propagande étatique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Mobiliser les citoyens autour des messages en faveur de l'État. Coordonner des groupes rémunérés ou volontaires pour promouvoir la propagande étatique.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>T0074 Déterminer les finalités stratégiques</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Définir l'état final recherché que la campagne vise à atteindre. Par exemple, l'obtention d'une position avantageuse vis-à-vis des compétiteurs en termes de pouvoir ou d'influence. Les finalités stratégiques peuvent être d'améliorer ou simplement de maintenir une position existante. Cette compétition se déroule dans la sphère publique aussi bien dans les domaines militaire, diplomatique, politique, économique ou idéologique. Elle peut se jouer entre des groupes armés, des États nations, des partis politiques, des groupes d'intérêt ou des individus. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">T0136.004 Booster la réputation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Accroître l'estime du public pour l'acteur, par exemple en améliorant son image ou sa prestance de l'acteur. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">T0139.001 Décourager
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Faire en sorte que la cible soit réticente à agir. Les manipulateurs exploitent la désinformation afin que la cible s'interroge sur l'utilité, la légalité ou la moralité de ses actions. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA14: Élaborer les récits 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="Marianne"/>
       </rPr>
-      <t>Establish Social Asset</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>Develop Narratives</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Créer ou acquérir des vecteurs de communication (comptes de réseaux sociaux, chaînes de médias, fermes à trolls).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0098.002 Exploiter des sites d'information inauthentiques 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Plutôt que de créer de nouveaux sites, il s'agit de réutiliser des sites existants liés ou non liés au dispositif de la campagne</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0104.005  Utiliser des hashtags existants 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Utiliser des hashtags existants pour un évènement spécifique. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0043.001  Utiliser des applications de chats cryptées 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Signal, WhatsApp, Discord, Wire</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0104.004 Des réseaux basés sur les centres d'intérêt
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Gettr, Parler, Truth Social.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0115 Publier du contenu via ses propres ressources médiatiques 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Exemple : RT, </t>
+    </r>
+    <r>
+      <rPr>
         <i/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA16: Établir la confiance
-</t>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Sputnik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">, CGTN, TRT mais également les sites tels que </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Establish Legitimacy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA05: Microciblage
-</t>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Observateur Continental</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Microtarget</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA07 Sélection des canaux et des fonctionnalités
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Select Channels and Affordances</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA18 Causer du tort en ligne
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="20"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Drive Online Harms</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TA10 Mener des activités hors-ligne
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Marianne"/>
-      </rPr>
-      <t>Drive Offline Activity</t>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>Planete360</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">. Cela peut-être aussi des comptes et pages de réseaux sociaux. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0122 Rediriger les utilisateurs vers des plateformes alternatives 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Il s'agit d'encourager les utilisateurs à réagir aux contenus de la campagne sur d'autres plateformes que celles où ils ont d'abord été exposés à ces contenus. Cela permet de diversifier les canaux d'information et de s'assurer que l'audience cible a bien toujours accès aux contenus de l'opération si la plateforme initiale est suspendue. </t>
+    </r>
+  </si>
+  <si>
+    <t>Actions entreprises, dans l'espace numérique, par une opération d'influence pour nuire à ses adversaires.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t>T0017 Lever des fonds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">
+Il s'agit d'un effort systématique de recherche d'un soutien financier en ligne pour une action caritative, une cause ou toute autre entreprise afin de faire la promotion de la campagne. Par exemple : Tipee, Patreon, GoFundme. </t>
+    </r>
+  </si>
+  <si>
+    <t>T0129.005 Se coordonner sur des réseaux chiffrés/fermés</t>
+  </si>
+  <si>
+    <t>Toutes les actions prises pour permettre aux éléments créés pour la campagne de rester disponible dans l'environnement informationnel.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">T0074.003 Gain économique
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marianne"/>
+      </rPr>
+      <t xml:space="preserve">Obtenir une position favorable domestiquement ou internationalement dans les milieux du commerce, des échanges, de la finance et de l'industrie. Les acteurs impliqués peuvent être les États-nations, les corporations, les banques, les groupements industriels, les cartels. </t>
     </r>
   </si>
 </sst>
@@ -10845,31 +10831,643 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10902,40 +11500,16 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10944,21 +11518,12 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10977,587 +11542,8 @@
     <xf numFmtId="0" fontId="19" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11892,8 +11878,8 @@
   </sheetPr>
   <dimension ref="A1:BL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1:BB1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21.75" x14ac:dyDescent="0.4"/>
@@ -11966,132 +11952,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" s="3" customFormat="1" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="356" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="397" t="s">
+      <c r="A1" s="165" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="167" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="168"/>
+      <c r="E1" s="189" t="s">
+        <v>566</v>
+      </c>
+      <c r="F1" s="190"/>
+      <c r="G1" s="187" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="188"/>
+      <c r="I1" s="185" t="s">
         <v>570</v>
       </c>
-      <c r="D1" s="398"/>
-      <c r="E1" s="377" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="378"/>
-      <c r="G1" s="375" t="s">
+      <c r="J1" s="186"/>
+      <c r="K1" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="184"/>
+      <c r="M1" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="N1" s="181" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="181"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="169" t="s">
+        <v>571</v>
+      </c>
+      <c r="R1" s="170"/>
+      <c r="S1" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="376"/>
-      <c r="I1" s="373" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="374"/>
-      <c r="K1" s="371" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="372"/>
-      <c r="M1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="369" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="369"/>
-      <c r="P1" s="370"/>
-      <c r="Q1" s="358" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="359"/>
-      <c r="S1" s="360" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="361"/>
-      <c r="U1" s="362" t="s">
-        <v>609</v>
-      </c>
-      <c r="V1" s="363"/>
-      <c r="W1" s="364" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="365"/>
-      <c r="Y1" s="379" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="173" t="s">
+        <v>573</v>
+      </c>
+      <c r="V1" s="174"/>
+      <c r="W1" s="175" t="s">
+        <v>603</v>
+      </c>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="191" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="193" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="195" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="197" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="199" t="s">
+        <v>577</v>
+      </c>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="201" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="AL1" s="203" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" s="203"/>
+      <c r="AN1" s="204"/>
+      <c r="AO1" s="207" t="s">
+        <v>547</v>
+      </c>
+      <c r="AP1" s="208"/>
+      <c r="AQ1" s="205" t="s">
+        <v>585</v>
+      </c>
+      <c r="AR1" s="206"/>
+      <c r="AS1" s="209" t="s">
+        <v>548</v>
+      </c>
+      <c r="AT1" s="210"/>
+      <c r="AU1" s="211" t="s">
+        <v>586</v>
+      </c>
+      <c r="AV1" s="212"/>
+      <c r="AW1" s="213" t="s">
+        <v>563</v>
+      </c>
+      <c r="AX1" s="214"/>
+      <c r="AY1" s="215" t="s">
         <v>610</v>
       </c>
-      <c r="Z1" s="380"/>
-      <c r="AA1" s="381" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="382"/>
-      <c r="AC1" s="383" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD1" s="384"/>
-      <c r="AE1" s="385" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF1" s="386"/>
-      <c r="AG1" s="387" t="s">
-        <v>612</v>
-      </c>
-      <c r="AH1" s="388"/>
-      <c r="AI1" s="389" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ1" s="390"/>
-      <c r="AK1" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="AL1" s="391" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM1" s="391"/>
-      <c r="AN1" s="392"/>
-      <c r="AO1" s="395" t="s">
-        <v>589</v>
-      </c>
-      <c r="AP1" s="396"/>
-      <c r="AQ1" s="393" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR1" s="394"/>
-      <c r="AS1" s="333" t="s">
-        <v>590</v>
-      </c>
-      <c r="AT1" s="334"/>
-      <c r="AU1" s="335" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV1" s="336"/>
-      <c r="AW1" s="337" t="s">
+      <c r="AZ1" s="216"/>
+      <c r="BA1" s="219" t="s">
+        <v>564</v>
+      </c>
+      <c r="BB1" s="220"/>
+      <c r="BC1" s="221" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD1" s="222"/>
+      <c r="BE1" s="161" t="s">
+        <v>558</v>
+      </c>
+      <c r="BF1" s="162"/>
+      <c r="BG1" s="163" t="s">
         <v>613</v>
       </c>
-      <c r="AX1" s="338"/>
-      <c r="AY1" s="339" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ1" s="340"/>
-      <c r="BA1" s="341" t="s">
-        <v>614</v>
-      </c>
-      <c r="BB1" s="342"/>
-      <c r="BC1" s="343" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD1" s="344"/>
-      <c r="BE1" s="352" t="s">
-        <v>603</v>
-      </c>
-      <c r="BF1" s="353"/>
-      <c r="BG1" s="354" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH1" s="355"/>
-      <c r="BI1" s="259" t="s">
-        <v>604</v>
-      </c>
-      <c r="BJ1" s="260"/>
-      <c r="BK1" s="261"/>
-      <c r="BL1" s="262"/>
+      <c r="BH1" s="164"/>
+      <c r="BI1" s="277" t="s">
+        <v>559</v>
+      </c>
+      <c r="BJ1" s="278"/>
+      <c r="BK1" s="279"/>
+      <c r="BL1" s="280"/>
     </row>
     <row r="2" spans="1:64" s="7" customFormat="1" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
@@ -12139,1913 +12125,1913 @@
     </row>
     <row r="3" spans="1:64" ht="348.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
+        <v>531</v>
+      </c>
+      <c r="C3" s="369"/>
+      <c r="D3" s="370"/>
       <c r="E3" s="158" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F3" s="159" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="216"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="218" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="167" t="s">
-        <v>112</v>
+        <v>598</v>
+      </c>
+      <c r="G3" s="322"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="324" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="373" t="s">
+        <v>98</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
+        <v>102</v>
+      </c>
+      <c r="O3" s="374"/>
+      <c r="P3" s="375"/>
       <c r="Q3" s="19" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>578</v>
+        <v>540</v>
       </c>
       <c r="S3" s="21"/>
       <c r="T3" s="22"/>
       <c r="U3" s="23" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="V3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="378"/>
+      <c r="X3" s="379"/>
+      <c r="Y3" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="174"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA3" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="28" t="s">
-        <v>55</v>
-      </c>
       <c r="AC3" s="29" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="AD3" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE3" s="275"/>
-      <c r="AF3" s="276"/>
+        <v>108</v>
+      </c>
+      <c r="AE3" s="293"/>
+      <c r="AF3" s="294"/>
       <c r="AG3" s="31" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="AH3" s="32" t="s">
-        <v>124</v>
+        <v>578</v>
       </c>
       <c r="AI3" s="33"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="35" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="AL3" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM3" s="281"/>
-      <c r="AN3" s="282"/>
-      <c r="AO3" s="287" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP3" s="289" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="AM3" s="299"/>
+      <c r="AN3" s="300"/>
+      <c r="AO3" s="305" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP3" s="307" t="s">
+        <v>113</v>
       </c>
       <c r="AQ3" s="37" t="s">
         <v>0</v>
       </c>
       <c r="AR3" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS3" s="291" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT3" s="293" t="s">
-        <v>131</v>
+        <v>114</v>
+      </c>
+      <c r="AS3" s="309" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT3" s="310" t="s">
+        <v>116</v>
       </c>
       <c r="AU3" s="39" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="AV3" s="40" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AW3" s="41" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="AX3" s="42" t="s">
-        <v>596</v>
-      </c>
-      <c r="AY3" s="180"/>
-      <c r="AZ3" s="181"/>
+        <v>552</v>
+      </c>
+      <c r="AY3" s="264"/>
+      <c r="AZ3" s="384"/>
       <c r="BA3" s="43" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="BB3" s="44" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="BC3" s="45" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BE3" s="46" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="BF3" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG3" s="210"/>
-      <c r="BH3" s="211"/>
-      <c r="BI3" s="234" t="s">
-        <v>138</v>
-      </c>
-      <c r="BJ3" s="263" t="s">
-        <v>139</v>
+        <v>592</v>
+      </c>
+      <c r="BG3" s="365"/>
+      <c r="BH3" s="366"/>
+      <c r="BI3" s="352" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ3" s="281" t="s">
+        <v>123</v>
       </c>
       <c r="BK3" s="48" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="BL3" s="49" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="266" t="s">
+      <c r="A4" s="284" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="286" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="320"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="325"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="376"/>
+      <c r="P4" s="377"/>
+      <c r="Q4" s="288" t="s">
+        <v>135</v>
+      </c>
+      <c r="R4" s="290" t="s">
+        <v>136</v>
+      </c>
+      <c r="S4" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="W4" s="380"/>
+      <c r="X4" s="381"/>
+      <c r="Y4" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z4" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA4" s="291"/>
+      <c r="AB4" s="292"/>
+      <c r="AC4" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="268" t="s">
+      <c r="AD4" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="AE4" s="295"/>
+      <c r="AF4" s="296"/>
+      <c r="AG4" s="240" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="AH4" s="241" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI4" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="AJ4" s="66" t="s">
+        <v>606</v>
+      </c>
+      <c r="AK4" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="AL4" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="214"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="53" t="s">
+      <c r="AM4" s="301"/>
+      <c r="AN4" s="302"/>
+      <c r="AO4" s="306"/>
+      <c r="AP4" s="308"/>
+      <c r="AQ4" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR4" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="AS4" s="272"/>
+      <c r="AT4" s="273"/>
+      <c r="AU4" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="AV4" s="72" t="s">
+        <v>550</v>
+      </c>
+      <c r="AW4" s="242" t="s">
         <v>150</v>
       </c>
-      <c r="N4" s="56" t="s">
+      <c r="AX4" s="245" t="s">
+        <v>553</v>
+      </c>
+      <c r="AY4" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="O4" s="172"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="270" t="s">
+      <c r="AZ4" s="74" t="s">
+        <v>554</v>
+      </c>
+      <c r="BA4" s="317" t="s">
         <v>152</v>
       </c>
-      <c r="R4" s="271" t="s">
+      <c r="BB4" s="357" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC4" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="S4" s="57" t="s">
+      <c r="BD4" s="76" t="s">
+        <v>590</v>
+      </c>
+      <c r="BE4" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="T4" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="59" t="s">
+      <c r="BF4" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="BG4" s="367"/>
+      <c r="BH4" s="368"/>
+      <c r="BI4" s="353"/>
+      <c r="BJ4" s="282"/>
+      <c r="BK4" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="W4" s="176"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="61" t="s">
+      <c r="BL4" s="78" t="s">
         <v>157</v>
-      </c>
-      <c r="Z4" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA4" s="272"/>
-      <c r="AB4" s="273"/>
-      <c r="AC4" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD4" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE4" s="277"/>
-      <c r="AF4" s="278"/>
-      <c r="AG4" s="274" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH4" s="295" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI4" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ4" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK4" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL4" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM4" s="283"/>
-      <c r="AN4" s="284"/>
-      <c r="AO4" s="288"/>
-      <c r="AP4" s="290"/>
-      <c r="AQ4" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR4" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS4" s="292"/>
-      <c r="AT4" s="294"/>
-      <c r="AU4" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV4" s="72" t="s">
-        <v>594</v>
-      </c>
-      <c r="AW4" s="305" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX4" s="308" t="s">
-        <v>597</v>
-      </c>
-      <c r="AY4" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ4" s="74" t="s">
-        <v>598</v>
-      </c>
-      <c r="BA4" s="182" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB4" s="197" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC4" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="BD4" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE4" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="BF4" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="BG4" s="212"/>
-      <c r="BH4" s="213"/>
-      <c r="BI4" s="235"/>
-      <c r="BJ4" s="264"/>
-      <c r="BK4" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="BL4" s="78" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:64" ht="291.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="266"/>
-      <c r="B5" s="268"/>
+      <c r="A5" s="284"/>
+      <c r="B5" s="286"/>
       <c r="C5" s="51" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D5" s="155" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F5" s="160" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G5" s="157" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="I5" s="219"/>
-      <c r="J5" s="168"/>
+        <v>163</v>
+      </c>
+      <c r="I5" s="325"/>
+      <c r="J5" s="340"/>
       <c r="K5" s="53" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>571</v>
-      </c>
-      <c r="M5" s="247" t="s">
-        <v>184</v>
-      </c>
-      <c r="N5" s="249" t="s">
-        <v>185</v>
+        <v>533</v>
+      </c>
+      <c r="M5" s="342" t="s">
+        <v>165</v>
+      </c>
+      <c r="N5" s="344" t="s">
+        <v>166</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="P5" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="191"/>
+        <v>168</v>
+      </c>
+      <c r="Q5" s="289"/>
+      <c r="R5" s="226"/>
       <c r="S5" s="82" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="T5" s="83" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="U5" s="59" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="V5" s="84" t="s">
-        <v>580</v>
-      </c>
-      <c r="W5" s="178"/>
-      <c r="X5" s="179"/>
+        <v>541</v>
+      </c>
+      <c r="W5" s="382"/>
+      <c r="X5" s="383"/>
       <c r="Y5" s="61" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="Z5" s="62" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="AA5" s="85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB5" s="86" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="AC5" s="63" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="AD5" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE5" s="279"/>
-      <c r="AF5" s="280"/>
-      <c r="AG5" s="274"/>
-      <c r="AH5" s="295"/>
+        <v>175</v>
+      </c>
+      <c r="AE5" s="297"/>
+      <c r="AF5" s="298"/>
+      <c r="AG5" s="240"/>
+      <c r="AH5" s="241"/>
       <c r="AI5" s="65" t="s">
         <v>1</v>
       </c>
       <c r="AJ5" s="66" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="AK5" s="87" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="AL5" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM5" s="283"/>
-      <c r="AN5" s="284"/>
-      <c r="AO5" s="221" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP5" s="224" t="s">
-        <v>591</v>
+        <v>178</v>
+      </c>
+      <c r="AM5" s="301"/>
+      <c r="AN5" s="302"/>
+      <c r="AO5" s="327" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP5" s="330" t="s">
+        <v>608</v>
       </c>
       <c r="AQ5" s="69" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="AR5" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="AS5" s="292"/>
-      <c r="AT5" s="294"/>
+        <v>549</v>
+      </c>
+      <c r="AS5" s="272"/>
+      <c r="AT5" s="273"/>
       <c r="AU5" s="71" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AV5" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW5" s="306"/>
-      <c r="AX5" s="309"/>
+        <v>182</v>
+      </c>
+      <c r="AW5" s="243"/>
+      <c r="AX5" s="246"/>
       <c r="AY5" s="73" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="AZ5" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA5" s="239"/>
-      <c r="BB5" s="198"/>
+        <v>76</v>
+      </c>
+      <c r="BA5" s="318"/>
+      <c r="BB5" s="358"/>
       <c r="BC5" s="75" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="BD5" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="BE5" s="230" t="s">
-        <v>205</v>
-      </c>
-      <c r="BF5" s="227" t="s">
-        <v>206</v>
+        <v>185</v>
+      </c>
+      <c r="BE5" s="333" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF5" s="223" t="s">
+        <v>187</v>
       </c>
       <c r="BG5" s="47" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="BH5" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI5" s="236"/>
-      <c r="BJ5" s="265"/>
+        <v>87</v>
+      </c>
+      <c r="BI5" s="354"/>
+      <c r="BJ5" s="283"/>
       <c r="BK5" s="89" t="s">
         <v>2</v>
       </c>
       <c r="BL5" s="90" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="396.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="266"/>
-      <c r="B6" s="268"/>
+      <c r="A6" s="284"/>
+      <c r="B6" s="286"/>
       <c r="C6" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="154" t="s">
+        <v>614</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="160" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="320"/>
+      <c r="H6" s="321"/>
+      <c r="I6" s="325"/>
+      <c r="J6" s="340"/>
+      <c r="K6" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="M6" s="343"/>
+      <c r="N6" s="345"/>
+      <c r="O6" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="P6" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q6" s="229" t="s">
+        <v>196</v>
+      </c>
+      <c r="R6" s="225" t="s">
+        <v>197</v>
+      </c>
+      <c r="S6" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="T6" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="U6" s="258" t="s">
+        <v>200</v>
+      </c>
+      <c r="V6" s="360" t="s">
+        <v>201</v>
+      </c>
+      <c r="W6" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="X6" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y6" s="390" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z6" s="357" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA6" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" s="392" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD6" s="395" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE6" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6" s="311" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH6" s="312" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="154" t="s">
+      <c r="AI6" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="AJ6" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="F6" s="160" t="s">
+      <c r="AK6" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="215"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="248"/>
-      <c r="N6" s="250"/>
-      <c r="O6" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="P6" s="81" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q6" s="240" t="s">
-        <v>216</v>
-      </c>
-      <c r="R6" s="189" t="s">
-        <v>217</v>
-      </c>
-      <c r="S6" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="T6" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="U6" s="242" t="s">
-        <v>220</v>
-      </c>
-      <c r="V6" s="205" t="s">
-        <v>221</v>
-      </c>
-      <c r="W6" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="X6" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y6" s="195" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z6" s="197" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA6" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC6" s="199" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD6" s="202" t="s">
-        <v>564</v>
-      </c>
-      <c r="AE6" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF6" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG6" s="296" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH6" s="297" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI6" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ6" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK6" s="87" t="s">
-        <v>231</v>
-      </c>
       <c r="AL6" s="68" t="s">
-        <v>587</v>
-      </c>
-      <c r="AM6" s="283"/>
-      <c r="AN6" s="284"/>
-      <c r="AO6" s="222"/>
-      <c r="AP6" s="225"/>
+        <v>546</v>
+      </c>
+      <c r="AM6" s="301"/>
+      <c r="AN6" s="302"/>
+      <c r="AO6" s="328"/>
+      <c r="AP6" s="331"/>
       <c r="AQ6" s="69" t="s">
         <v>3</v>
       </c>
       <c r="AR6" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS6" s="292"/>
-      <c r="AT6" s="294"/>
+        <v>66</v>
+      </c>
+      <c r="AS6" s="272"/>
+      <c r="AT6" s="273"/>
       <c r="AU6" s="71" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="AV6" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="AW6" s="306"/>
-      <c r="AX6" s="309"/>
+        <v>213</v>
+      </c>
+      <c r="AW6" s="243"/>
+      <c r="AX6" s="246"/>
       <c r="AY6" s="73" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="AZ6" s="74" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="BA6" s="95" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="BB6" s="96" t="s">
-        <v>236</v>
-      </c>
-      <c r="BC6" s="298"/>
-      <c r="BD6" s="299"/>
-      <c r="BE6" s="231"/>
-      <c r="BF6" s="228"/>
+        <v>591</v>
+      </c>
+      <c r="BC6" s="313"/>
+      <c r="BD6" s="314"/>
+      <c r="BE6" s="334"/>
+      <c r="BF6" s="237"/>
       <c r="BG6" s="97" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="BH6" s="98" t="s">
-        <v>605</v>
-      </c>
-      <c r="BI6" s="207" t="s">
-        <v>238</v>
-      </c>
-      <c r="BJ6" s="300" t="s">
-        <v>239</v>
+        <v>560</v>
+      </c>
+      <c r="BI6" s="274" t="s">
+        <v>217</v>
+      </c>
+      <c r="BJ6" s="262" t="s">
+        <v>218</v>
       </c>
       <c r="BK6" s="77" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="BL6" s="90" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="370.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="267"/>
-      <c r="B7" s="269"/>
+      <c r="A7" s="285"/>
+      <c r="B7" s="287"/>
       <c r="C7" s="99" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D7" s="156" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F7" s="160" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="214"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="169"/>
+        <v>567</v>
+      </c>
+      <c r="G7" s="320"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="341"/>
       <c r="K7" s="53" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="O7" s="251"/>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="241"/>
-      <c r="R7" s="191"/>
+        <v>227</v>
+      </c>
+      <c r="O7" s="346"/>
+      <c r="P7" s="347"/>
+      <c r="Q7" s="256"/>
+      <c r="R7" s="226"/>
       <c r="S7" s="82" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="T7" s="100" t="s">
-        <v>251</v>
-      </c>
-      <c r="U7" s="243"/>
-      <c r="V7" s="244"/>
+        <v>229</v>
+      </c>
+      <c r="U7" s="359"/>
+      <c r="V7" s="361"/>
       <c r="W7" s="91" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="X7" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y7" s="196"/>
-      <c r="Z7" s="198"/>
+        <v>574</v>
+      </c>
+      <c r="Y7" s="391"/>
+      <c r="Z7" s="358"/>
       <c r="AA7" s="85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="86" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="203"/>
+        <v>604</v>
+      </c>
+      <c r="AC7" s="393"/>
+      <c r="AD7" s="396"/>
       <c r="AE7" s="93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF7" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG7" s="296"/>
-      <c r="AH7" s="297"/>
+        <v>57</v>
+      </c>
+      <c r="AG7" s="311"/>
+      <c r="AH7" s="312"/>
       <c r="AI7" s="65" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="AJ7" s="66" t="s">
-        <v>583</v>
+        <v>544</v>
       </c>
       <c r="AK7" s="87" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="AL7" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM7" s="283"/>
-      <c r="AN7" s="284"/>
-      <c r="AO7" s="223"/>
-      <c r="AP7" s="226"/>
+        <v>233</v>
+      </c>
+      <c r="AM7" s="301"/>
+      <c r="AN7" s="302"/>
+      <c r="AO7" s="329"/>
+      <c r="AP7" s="332"/>
       <c r="AQ7" s="69" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="AR7" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS7" s="292"/>
-      <c r="AT7" s="294"/>
+        <v>67</v>
+      </c>
+      <c r="AS7" s="272"/>
+      <c r="AT7" s="273"/>
       <c r="AU7" s="71" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="AV7" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW7" s="307"/>
-      <c r="AX7" s="310"/>
+        <v>588</v>
+      </c>
+      <c r="AW7" s="244"/>
+      <c r="AX7" s="247"/>
       <c r="AY7" s="73" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="AZ7" s="74" t="s">
-        <v>600</v>
-      </c>
-      <c r="BA7" s="182" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB7" s="303" t="s">
-        <v>261</v>
+        <v>556</v>
+      </c>
+      <c r="BA7" s="317" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB7" s="267" t="s">
+        <v>238</v>
       </c>
       <c r="BC7" s="75" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="BD7" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE7" s="231"/>
-      <c r="BF7" s="228"/>
+        <v>81</v>
+      </c>
+      <c r="BE7" s="334"/>
+      <c r="BF7" s="237"/>
       <c r="BG7" s="103" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="BH7" s="104" t="s">
-        <v>263</v>
-      </c>
-      <c r="BI7" s="208"/>
-      <c r="BJ7" s="301"/>
+        <v>240</v>
+      </c>
+      <c r="BI7" s="275"/>
+      <c r="BJ7" s="315"/>
       <c r="BK7" s="77" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="BL7" s="90" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:64" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E8" s="106" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="F8" s="160" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="214"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="184" t="s">
-        <v>267</v>
-      </c>
-      <c r="J8" s="187" t="s">
-        <v>268</v>
+        <v>568</v>
+      </c>
+      <c r="G8" s="320"/>
+      <c r="H8" s="321"/>
+      <c r="I8" s="336" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="339" t="s">
+        <v>244</v>
       </c>
       <c r="K8" s="53" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="L8" s="54" t="s">
-        <v>572</v>
+        <v>534</v>
       </c>
       <c r="M8" s="55" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="N8" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="O8" s="253"/>
-      <c r="P8" s="254"/>
-      <c r="Q8" s="257" t="s">
-        <v>272</v>
-      </c>
-      <c r="R8" s="189" t="s">
-        <v>273</v>
+        <v>247</v>
+      </c>
+      <c r="O8" s="348"/>
+      <c r="P8" s="349"/>
+      <c r="Q8" s="289" t="s">
+        <v>248</v>
+      </c>
+      <c r="R8" s="225" t="s">
+        <v>249</v>
       </c>
       <c r="S8" s="82" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="T8" s="100" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="U8" s="59" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="V8" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="W8" s="192"/>
-      <c r="X8" s="193"/>
-      <c r="Y8" s="194" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z8" s="319" t="s">
-        <v>279</v>
+        <v>253</v>
+      </c>
+      <c r="W8" s="388"/>
+      <c r="X8" s="389"/>
+      <c r="Y8" s="269" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z8" s="239" t="s">
+        <v>255</v>
       </c>
       <c r="AA8" s="85" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="AB8" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC8" s="201"/>
-      <c r="AD8" s="204"/>
+        <v>257</v>
+      </c>
+      <c r="AC8" s="394"/>
+      <c r="AD8" s="397"/>
       <c r="AE8" s="107" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="AF8" s="108" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG8" s="274" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG8" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="AH8" s="295" t="s">
-        <v>64</v>
+      <c r="AH8" s="241" t="s">
+        <v>60</v>
       </c>
       <c r="AI8" s="65" t="s">
         <v>6</v>
       </c>
       <c r="AJ8" s="66" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="AK8" s="87" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="AL8" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="AM8" s="283"/>
-      <c r="AN8" s="284"/>
+        <v>262</v>
+      </c>
+      <c r="AM8" s="301"/>
+      <c r="AN8" s="302"/>
       <c r="AO8" s="109" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="AP8" s="110" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AQ8" s="69" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="AR8" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS8" s="292"/>
-      <c r="AT8" s="294"/>
+        <v>69</v>
+      </c>
+      <c r="AS8" s="272"/>
+      <c r="AT8" s="273"/>
       <c r="AU8" s="71" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="AV8" s="72" t="s">
-        <v>290</v>
-      </c>
-      <c r="AW8" s="305" t="s">
-        <v>291</v>
-      </c>
-      <c r="AX8" s="308" t="s">
-        <v>84</v>
+        <v>266</v>
+      </c>
+      <c r="AW8" s="242" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX8" s="245" t="s">
+        <v>77</v>
       </c>
       <c r="AY8" s="73" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="AZ8" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="BA8" s="239"/>
-      <c r="BB8" s="304"/>
+        <v>269</v>
+      </c>
+      <c r="BA8" s="318"/>
+      <c r="BB8" s="319"/>
       <c r="BC8" s="75" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="BD8" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="BE8" s="231"/>
-      <c r="BF8" s="228"/>
+        <v>83</v>
+      </c>
+      <c r="BE8" s="334"/>
+      <c r="BF8" s="237"/>
       <c r="BG8" s="47" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="BH8" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="BI8" s="208"/>
-      <c r="BJ8" s="301"/>
+        <v>272</v>
+      </c>
+      <c r="BI8" s="275"/>
+      <c r="BJ8" s="315"/>
       <c r="BK8" s="77" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="BL8" s="90" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:64" ht="285" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E9" s="106" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="F9" s="160" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" s="214"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="168"/>
+        <v>276</v>
+      </c>
+      <c r="G9" s="320"/>
+      <c r="H9" s="321"/>
+      <c r="I9" s="337"/>
+      <c r="J9" s="340"/>
       <c r="K9" s="53" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="L9" s="54" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N9" s="56" t="s">
-        <v>577</v>
-      </c>
-      <c r="O9" s="253"/>
-      <c r="P9" s="254"/>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="190"/>
+        <v>539</v>
+      </c>
+      <c r="O9" s="348"/>
+      <c r="P9" s="349"/>
+      <c r="Q9" s="289"/>
+      <c r="R9" s="232"/>
       <c r="S9" s="82" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="T9" s="100" t="s">
-        <v>305</v>
-      </c>
-      <c r="U9" s="313" t="s">
-        <v>306</v>
-      </c>
-      <c r="V9" s="316" t="s">
-        <v>307</v>
+        <v>281</v>
+      </c>
+      <c r="U9" s="227" t="s">
+        <v>282</v>
+      </c>
+      <c r="V9" s="266" t="s">
+        <v>283</v>
       </c>
       <c r="W9" s="111" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="X9" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y9" s="194"/>
-      <c r="Z9" s="319"/>
+        <v>49</v>
+      </c>
+      <c r="Y9" s="269"/>
+      <c r="Z9" s="239"/>
       <c r="AA9" s="85" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="AB9" s="76" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="AC9" s="50"/>
-      <c r="AG9" s="274"/>
-      <c r="AH9" s="295"/>
+      <c r="AG9" s="240"/>
+      <c r="AH9" s="241"/>
       <c r="AI9" s="65" t="s">
         <v>7</v>
       </c>
       <c r="AJ9" s="66" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="AK9" s="113" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="AL9" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="AM9" s="285"/>
-      <c r="AN9" s="286"/>
+        <v>584</v>
+      </c>
+      <c r="AM9" s="303"/>
+      <c r="AN9" s="304"/>
       <c r="AO9" s="115" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AP9" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ9" s="245"/>
-      <c r="AR9" s="246"/>
-      <c r="AS9" s="292"/>
-      <c r="AT9" s="294"/>
+        <v>70</v>
+      </c>
+      <c r="AQ9" s="362"/>
+      <c r="AR9" s="363"/>
+      <c r="AS9" s="272"/>
+      <c r="AT9" s="273"/>
       <c r="AU9" s="71" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="AV9" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AW9" s="306"/>
-      <c r="AX9" s="309"/>
+      <c r="AW9" s="243"/>
+      <c r="AX9" s="246"/>
       <c r="AY9" s="73" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="AZ9" s="74" t="s">
-        <v>601</v>
-      </c>
-      <c r="BA9" s="182" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB9" s="303" t="s">
-        <v>318</v>
+        <v>557</v>
+      </c>
+      <c r="BA9" s="317" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB9" s="267" t="s">
+        <v>293</v>
       </c>
       <c r="BC9" s="75" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="BD9" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE9" s="232"/>
-      <c r="BF9" s="229"/>
+        <v>84</v>
+      </c>
+      <c r="BE9" s="335"/>
+      <c r="BF9" s="238"/>
       <c r="BG9" s="47" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="BH9" s="88" t="s">
-        <v>321</v>
-      </c>
-      <c r="BI9" s="208"/>
-      <c r="BJ9" s="301"/>
+        <v>593</v>
+      </c>
+      <c r="BI9" s="275"/>
+      <c r="BJ9" s="315"/>
       <c r="BK9" s="77" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="BL9" s="90" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:64" ht="360.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E10" s="163" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="351" t="s">
-        <v>325</v>
+      <c r="E10" s="217" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="236" t="s">
+        <v>299</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>327</v>
-      </c>
-      <c r="I10" s="185"/>
-      <c r="J10" s="168"/>
+        <v>301</v>
+      </c>
+      <c r="I10" s="337"/>
+      <c r="J10" s="340"/>
       <c r="K10" s="53" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>573</v>
+        <v>535</v>
       </c>
       <c r="M10" s="117" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="N10" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="O10" s="255"/>
-      <c r="P10" s="256"/>
-      <c r="Q10" s="257"/>
-      <c r="R10" s="190"/>
+        <v>304</v>
+      </c>
+      <c r="O10" s="350"/>
+      <c r="P10" s="351"/>
+      <c r="Q10" s="289"/>
+      <c r="R10" s="232"/>
       <c r="S10" s="82" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="T10" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="U10" s="313"/>
-      <c r="V10" s="316"/>
+        <v>305</v>
+      </c>
+      <c r="U10" s="227"/>
+      <c r="V10" s="266"/>
       <c r="W10" s="111" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="X10" s="92" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y10" s="194" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z10" s="319" t="s">
-        <v>335</v>
+        <v>307</v>
+      </c>
+      <c r="Y10" s="269" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z10" s="239" t="s">
+        <v>309</v>
       </c>
       <c r="AA10" s="85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB10" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG10" s="274"/>
-      <c r="AH10" s="295"/>
+        <v>53</v>
+      </c>
+      <c r="AG10" s="240"/>
+      <c r="AH10" s="241"/>
       <c r="AI10" s="65" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="AJ10" s="66" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="AK10" s="50"/>
       <c r="AS10" s="120" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="AT10" s="121" t="s">
-        <v>338</v>
-      </c>
-      <c r="AU10" s="367"/>
-      <c r="AV10" s="368"/>
-      <c r="AW10" s="306"/>
-      <c r="AX10" s="309"/>
+        <v>312</v>
+      </c>
+      <c r="AU10" s="179"/>
+      <c r="AV10" s="180"/>
+      <c r="AW10" s="243"/>
+      <c r="AX10" s="246"/>
       <c r="AY10" s="73" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="AZ10" s="74" t="s">
-        <v>340</v>
-      </c>
-      <c r="BA10" s="183"/>
-      <c r="BB10" s="317"/>
+        <v>314</v>
+      </c>
+      <c r="BA10" s="385"/>
+      <c r="BB10" s="268"/>
       <c r="BC10" s="122" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="BD10" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE10" s="348" t="s">
-        <v>342</v>
-      </c>
-      <c r="BF10" s="227" t="s">
-        <v>96</v>
+        <v>85</v>
+      </c>
+      <c r="BE10" s="177" t="s">
+        <v>316</v>
+      </c>
+      <c r="BF10" s="223" t="s">
+        <v>88</v>
       </c>
       <c r="BG10" s="47" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="BH10" s="88" t="s">
-        <v>344</v>
-      </c>
-      <c r="BI10" s="209"/>
-      <c r="BJ10" s="302"/>
+        <v>318</v>
+      </c>
+      <c r="BI10" s="276"/>
+      <c r="BJ10" s="316"/>
       <c r="BK10" s="77" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="BL10" s="78" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:64" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="E11" s="163"/>
-      <c r="F11" s="351"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="236"/>
       <c r="G11" s="52" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="I11" s="185"/>
-      <c r="J11" s="168"/>
+        <v>322</v>
+      </c>
+      <c r="I11" s="337"/>
+      <c r="J11" s="340"/>
       <c r="K11" s="53" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="L11" s="54" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q11" s="258"/>
-      <c r="R11" s="191"/>
+        <v>536</v>
+      </c>
+      <c r="Q11" s="364"/>
+      <c r="R11" s="226"/>
       <c r="S11" s="82" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="T11" s="82"/>
-      <c r="U11" s="313"/>
-      <c r="V11" s="316"/>
+      <c r="U11" s="227"/>
+      <c r="V11" s="266"/>
       <c r="W11" s="111" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="X11" s="92" t="s">
-        <v>581</v>
-      </c>
-      <c r="Y11" s="194"/>
-      <c r="Z11" s="319"/>
+        <v>542</v>
+      </c>
+      <c r="Y11" s="269"/>
+      <c r="Z11" s="239"/>
       <c r="AA11" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB11" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG11" s="274"/>
-      <c r="AH11" s="295"/>
+        <v>36</v>
+      </c>
+      <c r="AG11" s="240"/>
+      <c r="AH11" s="241"/>
       <c r="AI11" s="65" t="s">
         <v>8</v>
       </c>
       <c r="AJ11" s="66" t="s">
-        <v>352</v>
+        <v>607</v>
       </c>
       <c r="AK11" s="50"/>
-      <c r="AS11" s="292" t="s">
-        <v>353</v>
-      </c>
-      <c r="AT11" s="294" t="s">
-        <v>354</v>
+      <c r="AS11" s="272" t="s">
+        <v>326</v>
+      </c>
+      <c r="AT11" s="273" t="s">
+        <v>327</v>
       </c>
       <c r="AU11" s="71" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="AV11" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW11" s="307"/>
-      <c r="AX11" s="310"/>
+        <v>71</v>
+      </c>
+      <c r="AW11" s="244"/>
+      <c r="AX11" s="247"/>
       <c r="AY11" s="73" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="AZ11" s="42" t="s">
-        <v>608</v>
-      </c>
-      <c r="BE11" s="349"/>
-      <c r="BF11" s="228"/>
+        <v>561</v>
+      </c>
+      <c r="BE11" s="234"/>
+      <c r="BF11" s="237"/>
       <c r="BG11" s="47" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="BH11" s="88" t="s">
-        <v>606</v>
-      </c>
-      <c r="BI11" s="237" t="s">
-        <v>358</v>
-      </c>
-      <c r="BJ11" s="300" t="s">
-        <v>359</v>
+        <v>594</v>
+      </c>
+      <c r="BI11" s="355" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ11" s="262" t="s">
+        <v>332</v>
       </c>
       <c r="BK11" s="77" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="BL11" s="78" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="324.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E12" s="163"/>
-      <c r="F12" s="351"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="236"/>
       <c r="G12" s="52" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="H12" s="79" t="s">
-        <v>363</v>
-      </c>
-      <c r="I12" s="233"/>
-      <c r="J12" s="169"/>
+        <v>336</v>
+      </c>
+      <c r="I12" s="338"/>
+      <c r="J12" s="341"/>
       <c r="K12" s="53" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="L12" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q12" s="240" t="s">
-        <v>366</v>
-      </c>
-      <c r="R12" s="189" t="s">
-        <v>367</v>
+        <v>338</v>
+      </c>
+      <c r="Q12" s="229" t="s">
+        <v>339</v>
+      </c>
+      <c r="R12" s="225" t="s">
+        <v>340</v>
       </c>
       <c r="S12" s="82" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="T12" s="100" t="s">
-        <v>369</v>
-      </c>
-      <c r="U12" s="313"/>
-      <c r="V12" s="316"/>
+        <v>342</v>
+      </c>
+      <c r="U12" s="227"/>
+      <c r="V12" s="266"/>
       <c r="W12" s="111" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="X12" s="92" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y12" s="318"/>
-      <c r="Z12" s="320"/>
+        <v>344</v>
+      </c>
+      <c r="Y12" s="270"/>
+      <c r="Z12" s="271"/>
       <c r="AA12" s="124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB12" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG12" s="274"/>
-      <c r="AH12" s="295"/>
+        <v>35</v>
+      </c>
+      <c r="AG12" s="240"/>
+      <c r="AH12" s="241"/>
       <c r="AI12" s="65" t="s">
         <v>9</v>
       </c>
       <c r="AJ12" s="66" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="AK12" s="50"/>
-      <c r="AS12" s="292"/>
-      <c r="AT12" s="294"/>
+      <c r="AS12" s="272"/>
+      <c r="AT12" s="273"/>
       <c r="AU12" s="71" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="AV12" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW12" s="305" t="s">
-        <v>373</v>
-      </c>
-      <c r="AX12" s="308" t="s">
-        <v>374</v>
+        <v>72</v>
+      </c>
+      <c r="AW12" s="242" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX12" s="245" t="s">
+        <v>347</v>
       </c>
       <c r="AY12" s="73" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="AZ12" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="BE12" s="349"/>
-      <c r="BF12" s="228"/>
+        <v>349</v>
+      </c>
+      <c r="BE12" s="234"/>
+      <c r="BF12" s="237"/>
       <c r="BG12" s="47" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="BH12" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="BI12" s="238"/>
-      <c r="BJ12" s="311"/>
+        <v>351</v>
+      </c>
+      <c r="BI12" s="356"/>
+      <c r="BJ12" s="263"/>
       <c r="BK12" s="126" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="BL12" s="127" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:64" ht="152.25" x14ac:dyDescent="0.4">
-      <c r="E13" s="163"/>
-      <c r="F13" s="351"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="236"/>
       <c r="G13" s="52" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>382</v>
-      </c>
-      <c r="I13" s="184" t="s">
-        <v>383</v>
-      </c>
-      <c r="J13" s="187" t="s">
-        <v>384</v>
+        <v>355</v>
+      </c>
+      <c r="I13" s="336" t="s">
+        <v>356</v>
+      </c>
+      <c r="J13" s="339" t="s">
+        <v>357</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="L13" s="130" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q13" s="312"/>
-      <c r="R13" s="190"/>
+        <v>359</v>
+      </c>
+      <c r="Q13" s="230"/>
+      <c r="R13" s="232"/>
       <c r="S13" s="82" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="T13" s="100" t="s">
-        <v>388</v>
-      </c>
-      <c r="U13" s="313" t="s">
-        <v>389</v>
-      </c>
-      <c r="V13" s="314" t="s">
-        <v>390</v>
+        <v>361</v>
+      </c>
+      <c r="U13" s="227" t="s">
+        <v>362</v>
+      </c>
+      <c r="V13" s="228" t="s">
+        <v>363</v>
       </c>
       <c r="W13" s="91" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="X13" s="112" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="Y13" s="119"/>
       <c r="Z13" s="105"/>
-      <c r="AG13" s="274"/>
-      <c r="AH13" s="295"/>
+      <c r="AG13" s="240"/>
+      <c r="AH13" s="241"/>
       <c r="AI13" s="65" t="s">
         <v>10</v>
       </c>
       <c r="AJ13" s="66" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="AK13" s="50"/>
-      <c r="AS13" s="292"/>
-      <c r="AT13" s="294"/>
+      <c r="AS13" s="272"/>
+      <c r="AT13" s="273"/>
       <c r="AU13" s="71" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AV13" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW13" s="306"/>
-      <c r="AX13" s="309"/>
+        <v>74</v>
+      </c>
+      <c r="AW13" s="243"/>
+      <c r="AX13" s="246"/>
       <c r="AY13" s="73" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="AZ13" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="BE13" s="349"/>
-      <c r="BF13" s="228"/>
+        <v>368</v>
+      </c>
+      <c r="BE13" s="234"/>
+      <c r="BF13" s="237"/>
       <c r="BG13" s="47" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="BH13" s="131" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="E14" s="163" t="s">
-        <v>398</v>
-      </c>
-      <c r="F14" s="165" t="s">
-        <v>399</v>
+    <row r="14" spans="1:64" ht="304.5" x14ac:dyDescent="0.4">
+      <c r="E14" s="217" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" s="218" t="s">
+        <v>372</v>
       </c>
       <c r="G14" s="132" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="H14" s="79" t="s">
-        <v>401</v>
-      </c>
-      <c r="I14" s="185"/>
-      <c r="J14" s="168"/>
+        <v>374</v>
+      </c>
+      <c r="I14" s="337"/>
+      <c r="J14" s="340"/>
       <c r="K14" s="53" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="L14" s="130" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q14" s="241"/>
-      <c r="R14" s="191"/>
+        <v>376</v>
+      </c>
+      <c r="Q14" s="256"/>
+      <c r="R14" s="226"/>
       <c r="S14" s="82" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="T14" s="100" t="s">
-        <v>405</v>
-      </c>
-      <c r="U14" s="313"/>
-      <c r="V14" s="314"/>
+        <v>378</v>
+      </c>
+      <c r="U14" s="227"/>
+      <c r="V14" s="228"/>
       <c r="W14" s="111" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="X14" s="112" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG14" s="274" t="s">
-        <v>408</v>
-      </c>
-      <c r="AH14" s="295" t="s">
-        <v>409</v>
+        <v>380</v>
+      </c>
+      <c r="AG14" s="240" t="s">
+        <v>381</v>
+      </c>
+      <c r="AH14" s="241" t="s">
+        <v>579</v>
       </c>
       <c r="AI14" s="65" t="s">
         <v>14</v>
       </c>
       <c r="AJ14" s="66" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="AK14" s="50"/>
-      <c r="AS14" s="292" t="s">
-        <v>411</v>
-      </c>
-      <c r="AT14" s="294" t="s">
-        <v>412</v>
+      <c r="AS14" s="272" t="s">
+        <v>383</v>
+      </c>
+      <c r="AT14" s="273" t="s">
+        <v>384</v>
       </c>
       <c r="AU14" s="71" t="s">
         <v>12</v>
       </c>
       <c r="AV14" s="72" t="s">
-        <v>413</v>
-      </c>
-      <c r="AW14" s="307"/>
-      <c r="AX14" s="310"/>
+        <v>385</v>
+      </c>
+      <c r="AW14" s="244"/>
+      <c r="AX14" s="247"/>
       <c r="AY14" s="73" t="s">
         <v>13</v>
       </c>
       <c r="AZ14" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE14" s="349"/>
-      <c r="BF14" s="228"/>
+        <v>78</v>
+      </c>
+      <c r="BE14" s="234"/>
+      <c r="BF14" s="237"/>
       <c r="BG14" s="47" t="s">
         <v>11</v>
       </c>
       <c r="BH14" s="131" t="s">
-        <v>97</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:64" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E15" s="163"/>
-      <c r="F15" s="165"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="218"/>
       <c r="G15" s="52" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="H15" s="79" t="s">
-        <v>565</v>
-      </c>
-      <c r="I15" s="185"/>
-      <c r="J15" s="168"/>
+        <v>527</v>
+      </c>
+      <c r="I15" s="337"/>
+      <c r="J15" s="340"/>
       <c r="K15" s="53" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="L15" s="54" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q15" s="240" t="s">
-        <v>417</v>
-      </c>
-      <c r="R15" s="189" t="s">
-        <v>418</v>
+        <v>388</v>
+      </c>
+      <c r="Q15" s="229" t="s">
+        <v>389</v>
+      </c>
+      <c r="R15" s="225" t="s">
+        <v>390</v>
       </c>
       <c r="S15" s="82" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="T15" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="U15" s="313"/>
-      <c r="V15" s="314"/>
+        <v>42</v>
+      </c>
+      <c r="U15" s="227"/>
+      <c r="V15" s="228"/>
       <c r="W15" s="111" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="X15" s="92" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG15" s="274"/>
-      <c r="AH15" s="295"/>
+        <v>393</v>
+      </c>
+      <c r="AG15" s="240"/>
+      <c r="AH15" s="241"/>
       <c r="AI15" s="65" t="s">
         <v>16</v>
       </c>
       <c r="AJ15" s="66" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="AK15" s="50"/>
-      <c r="AS15" s="292"/>
-      <c r="AT15" s="294"/>
+      <c r="AS15" s="272"/>
+      <c r="AT15" s="273"/>
       <c r="AU15" s="71" t="s">
         <v>15</v>
       </c>
       <c r="AV15" s="72" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AW15" s="41" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="AX15" s="135" t="s">
-        <v>424</v>
-      </c>
-      <c r="AY15" s="180"/>
-      <c r="AZ15" s="315"/>
-      <c r="BE15" s="349"/>
-      <c r="BF15" s="228"/>
+        <v>589</v>
+      </c>
+      <c r="AY15" s="264"/>
+      <c r="AZ15" s="265"/>
+      <c r="BE15" s="234"/>
+      <c r="BF15" s="237"/>
       <c r="BG15" s="47" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="BH15" s="131" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:64" ht="306" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="163"/>
-      <c r="F16" s="165"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="218"/>
       <c r="G16" s="132" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="H16" s="79" t="s">
-        <v>428</v>
-      </c>
-      <c r="I16" s="185"/>
-      <c r="J16" s="168"/>
+        <v>399</v>
+      </c>
+      <c r="I16" s="337"/>
+      <c r="J16" s="340"/>
       <c r="K16" s="53" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="L16" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q16" s="312"/>
-      <c r="R16" s="190"/>
+        <v>401</v>
+      </c>
+      <c r="Q16" s="230"/>
+      <c r="R16" s="232"/>
       <c r="S16" s="82" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="T16" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="U16" s="313" t="s">
-        <v>432</v>
-      </c>
-      <c r="V16" s="314" t="s">
-        <v>433</v>
+        <v>43</v>
+      </c>
+      <c r="U16" s="227" t="s">
+        <v>403</v>
+      </c>
+      <c r="V16" s="228" t="s">
+        <v>404</v>
       </c>
       <c r="W16" s="111" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="X16" s="92" t="s">
-        <v>435</v>
-      </c>
-      <c r="AG16" s="274"/>
-      <c r="AH16" s="295"/>
+        <v>406</v>
+      </c>
+      <c r="AG16" s="240"/>
+      <c r="AH16" s="241"/>
       <c r="AI16" s="65" t="s">
         <v>17</v>
       </c>
       <c r="AJ16" s="66" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="AK16" s="50"/>
       <c r="AS16" s="120" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="AT16" s="121" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="AU16" s="71" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="AV16" s="72" t="s">
-        <v>595</v>
-      </c>
-      <c r="BE16" s="349"/>
-      <c r="BF16" s="228"/>
+        <v>551</v>
+      </c>
+      <c r="BE16" s="234"/>
+      <c r="BF16" s="237"/>
       <c r="BG16" s="47" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="BH16" s="131" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="5:60" ht="309.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E17" s="163"/>
-      <c r="F17" s="165"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="218"/>
       <c r="G17" s="132" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="H17" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="I17" s="185"/>
-      <c r="J17" s="168"/>
+        <v>600</v>
+      </c>
+      <c r="I17" s="337"/>
+      <c r="J17" s="340"/>
       <c r="K17" s="53" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="L17" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q17" s="312"/>
-      <c r="R17" s="190"/>
+        <v>414</v>
+      </c>
+      <c r="Q17" s="230"/>
+      <c r="R17" s="232"/>
       <c r="S17" s="82" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="T17" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="U17" s="313"/>
-      <c r="V17" s="314"/>
+        <v>44</v>
+      </c>
+      <c r="U17" s="227"/>
+      <c r="V17" s="228"/>
       <c r="W17" s="111" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="X17" s="92" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="AG17" s="136" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="AH17" s="137" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AI17" s="65" t="s">
         <v>18</v>
       </c>
       <c r="AJ17" s="66" t="s">
-        <v>449</v>
+        <v>581</v>
       </c>
       <c r="AK17" s="50"/>
       <c r="AS17" s="138" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="AT17" s="139" t="s">
-        <v>451</v>
-      </c>
-      <c r="AU17" s="321"/>
-      <c r="AV17" s="322"/>
-      <c r="BE17" s="349"/>
-      <c r="BF17" s="228"/>
+        <v>609</v>
+      </c>
+      <c r="AU17" s="248"/>
+      <c r="AV17" s="249"/>
+      <c r="BE17" s="234"/>
+      <c r="BF17" s="237"/>
       <c r="BG17" s="47" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="BH17" s="131" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="5:60" ht="144" x14ac:dyDescent="0.4">
-      <c r="E18" s="163"/>
-      <c r="F18" s="165"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="218"/>
       <c r="G18" s="132" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="H18" s="79" t="s">
-        <v>455</v>
-      </c>
-      <c r="I18" s="185"/>
-      <c r="J18" s="168"/>
+        <v>423</v>
+      </c>
+      <c r="I18" s="337"/>
+      <c r="J18" s="340"/>
       <c r="K18" s="53" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="L18" s="54" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q18" s="241"/>
-      <c r="R18" s="191"/>
+        <v>537</v>
+      </c>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="226"/>
       <c r="S18" s="82" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="T18" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="U18" s="313"/>
-      <c r="V18" s="314"/>
+        <v>45</v>
+      </c>
+      <c r="U18" s="227"/>
+      <c r="V18" s="228"/>
       <c r="W18" s="111" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="X18" s="92" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="AG18" s="136" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="AH18" s="137" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI18" s="323"/>
-      <c r="AJ18" s="324"/>
+        <v>582</v>
+      </c>
+      <c r="AI18" s="250"/>
+      <c r="AJ18" s="251"/>
       <c r="AK18" s="50"/>
-      <c r="BE18" s="349"/>
-      <c r="BF18" s="228"/>
+      <c r="BE18" s="234"/>
+      <c r="BF18" s="237"/>
       <c r="BG18" s="47" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="BH18" s="131" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="5:60" ht="291.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E19" s="163"/>
-      <c r="F19" s="165"/>
+      <c r="E19" s="217"/>
+      <c r="F19" s="218"/>
       <c r="G19" s="52" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="H19" s="79" t="s">
-        <v>464</v>
-      </c>
-      <c r="I19" s="185"/>
-      <c r="J19" s="168"/>
+        <v>431</v>
+      </c>
+      <c r="I19" s="337"/>
+      <c r="J19" s="340"/>
       <c r="K19" s="53" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="L19" s="54" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q19" s="240" t="s">
-        <v>466</v>
-      </c>
-      <c r="R19" s="189" t="s">
-        <v>467</v>
+        <v>538</v>
+      </c>
+      <c r="Q19" s="229" t="s">
+        <v>433</v>
+      </c>
+      <c r="R19" s="225" t="s">
+        <v>434</v>
       </c>
       <c r="S19" s="82" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="T19" s="83" t="s">
-        <v>469</v>
-      </c>
-      <c r="U19" s="313" t="s">
-        <v>470</v>
-      </c>
-      <c r="V19" s="314" t="s">
-        <v>471</v>
+        <v>436</v>
+      </c>
+      <c r="U19" s="227" t="s">
+        <v>437</v>
+      </c>
+      <c r="V19" s="228" t="s">
+        <v>438</v>
       </c>
       <c r="W19" s="111" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="X19" s="92" t="s">
-        <v>473</v>
+        <v>575</v>
       </c>
       <c r="AG19" s="136" t="s">
         <v>19</v>
       </c>
       <c r="AH19" s="137" t="s">
-        <v>474</v>
-      </c>
-      <c r="AI19" s="325"/>
-      <c r="AJ19" s="326"/>
+        <v>440</v>
+      </c>
+      <c r="AI19" s="252"/>
+      <c r="AJ19" s="253"/>
       <c r="AK19" s="50"/>
-      <c r="BE19" s="350"/>
-      <c r="BF19" s="229"/>
+      <c r="BE19" s="235"/>
+      <c r="BF19" s="238"/>
       <c r="BG19" s="47" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="BH19" s="131" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="5:60" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E20" s="163"/>
-      <c r="F20" s="165"/>
+      <c r="E20" s="217"/>
+      <c r="F20" s="218"/>
       <c r="G20" s="132" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="H20" s="141" t="s">
-        <v>478</v>
-      </c>
-      <c r="I20" s="186"/>
-      <c r="J20" s="188"/>
+        <v>444</v>
+      </c>
+      <c r="I20" s="386"/>
+      <c r="J20" s="387"/>
       <c r="K20" s="142" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="L20" s="143" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q20" s="241"/>
-      <c r="R20" s="191"/>
+        <v>446</v>
+      </c>
+      <c r="Q20" s="256"/>
+      <c r="R20" s="226"/>
       <c r="S20" s="82" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="T20" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="U20" s="313"/>
-      <c r="V20" s="314"/>
+        <v>46</v>
+      </c>
+      <c r="U20" s="227"/>
+      <c r="V20" s="228"/>
       <c r="W20" s="111" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="X20" s="112" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AG20" s="136" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="AH20" s="137" t="s">
-        <v>484</v>
-      </c>
-      <c r="AI20" s="325"/>
-      <c r="AJ20" s="326"/>
+        <v>450</v>
+      </c>
+      <c r="AI20" s="252"/>
+      <c r="AJ20" s="253"/>
       <c r="AK20" s="50"/>
-      <c r="BE20" s="348" t="s">
-        <v>485</v>
-      </c>
-      <c r="BF20" s="227" t="s">
-        <v>100</v>
+      <c r="BE20" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="BF20" s="223" t="s">
+        <v>91</v>
       </c>
       <c r="BG20" s="47" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="BH20" s="131" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="5:60" ht="324" x14ac:dyDescent="0.4">
-      <c r="E21" s="163"/>
-      <c r="F21" s="165"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="218"/>
       <c r="G21" s="52" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="H21" s="79" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q21" s="240" t="s">
-        <v>489</v>
-      </c>
-      <c r="R21" s="189" t="s">
-        <v>490</v>
+        <v>454</v>
+      </c>
+      <c r="Q21" s="229" t="s">
+        <v>455</v>
+      </c>
+      <c r="R21" s="225" t="s">
+        <v>456</v>
       </c>
       <c r="S21" s="82" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="T21" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="U21" s="313" t="s">
-        <v>492</v>
-      </c>
-      <c r="V21" s="314" t="s">
-        <v>493</v>
+        <v>47</v>
+      </c>
+      <c r="U21" s="227" t="s">
+        <v>458</v>
+      </c>
+      <c r="V21" s="228" t="s">
+        <v>459</v>
       </c>
       <c r="W21" s="111" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="X21" s="92" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="AG21" s="136" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="AH21" s="137" t="s">
-        <v>497</v>
-      </c>
-      <c r="AI21" s="327"/>
-      <c r="AJ21" s="328"/>
+        <v>463</v>
+      </c>
+      <c r="AI21" s="254"/>
+      <c r="AJ21" s="255"/>
       <c r="AK21" s="50"/>
-      <c r="BE21" s="349"/>
-      <c r="BF21" s="228"/>
+      <c r="BE21" s="234"/>
+      <c r="BF21" s="237"/>
       <c r="BG21" s="47" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="BH21" s="131" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="5:60" ht="324" x14ac:dyDescent="0.4">
-      <c r="E22" s="329" t="s">
-        <v>500</v>
-      </c>
-      <c r="F22" s="165" t="s">
-        <v>566</v>
+      <c r="E22" s="257" t="s">
+        <v>466</v>
+      </c>
+      <c r="F22" s="218" t="s">
+        <v>528</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="H22" s="79" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q22" s="241"/>
-      <c r="R22" s="191"/>
+        <v>529</v>
+      </c>
+      <c r="Q22" s="256"/>
+      <c r="R22" s="226"/>
       <c r="S22" s="82" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="T22" s="100" t="s">
-        <v>503</v>
-      </c>
-      <c r="U22" s="313"/>
-      <c r="V22" s="314"/>
+        <v>469</v>
+      </c>
+      <c r="U22" s="227"/>
+      <c r="V22" s="228"/>
       <c r="W22" s="111" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="X22" s="92" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="AG22" s="136" t="s">
         <v>20</v>
       </c>
       <c r="AH22" s="137" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AI22" s="65" t="s">
         <v>22</v>
@@ -14054,90 +14040,90 @@
         <v>22</v>
       </c>
       <c r="AK22" s="50"/>
-      <c r="BE22" s="349"/>
-      <c r="BF22" s="228"/>
+      <c r="BE22" s="234"/>
+      <c r="BF22" s="237"/>
       <c r="BG22" s="47" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="BH22" s="131" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="23" spans="5:60" ht="369.75" x14ac:dyDescent="0.4">
-      <c r="E23" s="329"/>
-      <c r="F23" s="165"/>
+    <row r="23" spans="5:60" ht="282.75" x14ac:dyDescent="0.4">
+      <c r="E23" s="257"/>
+      <c r="F23" s="218"/>
       <c r="G23" s="52" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="H23" s="79" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q23" s="240" t="s">
-        <v>509</v>
-      </c>
-      <c r="R23" s="189" t="s">
-        <v>510</v>
+        <v>474</v>
+      </c>
+      <c r="Q23" s="229" t="s">
+        <v>475</v>
+      </c>
+      <c r="R23" s="225" t="s">
+        <v>476</v>
       </c>
       <c r="S23" s="82" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="T23" s="100" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="U23" s="59" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="V23" s="84" t="s">
-        <v>514</v>
-      </c>
-      <c r="W23" s="192"/>
-      <c r="X23" s="193"/>
+        <v>480</v>
+      </c>
+      <c r="W23" s="388"/>
+      <c r="X23" s="389"/>
       <c r="AG23" s="136"/>
       <c r="AH23" s="137"/>
       <c r="AI23" s="65" t="s">
         <v>23</v>
       </c>
       <c r="AJ23" s="66" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AK23" s="50"/>
-      <c r="BE23" s="349"/>
-      <c r="BF23" s="228"/>
+      <c r="BE23" s="234"/>
+      <c r="BF23" s="237"/>
       <c r="BG23" s="47" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="BH23" s="131" t="s">
-        <v>516</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="5:60" ht="321.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="329"/>
-      <c r="F24" s="165"/>
+      <c r="E24" s="257"/>
+      <c r="F24" s="218"/>
       <c r="G24" s="132" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="H24" s="79" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q24" s="312"/>
-      <c r="R24" s="190"/>
+        <v>483</v>
+      </c>
+      <c r="Q24" s="230"/>
+      <c r="R24" s="232"/>
       <c r="S24" s="82" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="T24" s="100" t="s">
-        <v>520</v>
-      </c>
-      <c r="U24" s="242" t="s">
-        <v>521</v>
-      </c>
-      <c r="V24" s="205" t="s">
-        <v>522</v>
+        <v>485</v>
+      </c>
+      <c r="U24" s="258" t="s">
+        <v>486</v>
+      </c>
+      <c r="V24" s="360" t="s">
+        <v>487</v>
       </c>
       <c r="W24" s="111" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="X24" s="92" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="AG24" s="136"/>
       <c r="AH24" s="137"/>
@@ -14148,130 +14134,130 @@
         <v>24</v>
       </c>
       <c r="AK24" s="50"/>
-      <c r="BE24" s="350"/>
-      <c r="BF24" s="229"/>
+      <c r="BE24" s="235"/>
+      <c r="BF24" s="238"/>
       <c r="BG24" s="47" t="s">
         <v>21</v>
       </c>
       <c r="BH24" s="131" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="5:60" ht="306.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E25" s="329"/>
-      <c r="F25" s="165"/>
+      <c r="E25" s="257"/>
+      <c r="F25" s="218"/>
       <c r="G25" s="52" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="H25" s="79" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q25" s="346"/>
-      <c r="R25" s="347"/>
+        <v>569</v>
+      </c>
+      <c r="Q25" s="231"/>
+      <c r="R25" s="233"/>
       <c r="S25" s="144" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="T25" s="145" t="s">
-        <v>528</v>
-      </c>
-      <c r="U25" s="330"/>
-      <c r="V25" s="206"/>
+        <v>492</v>
+      </c>
+      <c r="U25" s="259"/>
+      <c r="V25" s="398"/>
       <c r="W25" s="146" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="X25" s="147" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="AG25" s="136" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="AH25" s="148" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI25" s="331"/>
-      <c r="AJ25" s="332"/>
+        <v>63</v>
+      </c>
+      <c r="AI25" s="260"/>
+      <c r="AJ25" s="261"/>
       <c r="AK25" s="50"/>
-      <c r="BE25" s="348" t="s">
-        <v>532</v>
-      </c>
-      <c r="BF25" s="227" t="s">
-        <v>533</v>
+      <c r="BE25" s="177" t="s">
+        <v>496</v>
+      </c>
+      <c r="BF25" s="223" t="s">
+        <v>597</v>
       </c>
       <c r="BG25" s="47" t="s">
-        <v>534</v>
+        <v>497</v>
       </c>
       <c r="BH25" s="131" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="5:60" ht="196.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E26" s="329"/>
-      <c r="F26" s="165"/>
+      <c r="E26" s="257"/>
+      <c r="F26" s="218"/>
       <c r="G26" s="52" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
       <c r="H26" s="79" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="AG26" s="50"/>
       <c r="AH26" s="105"/>
       <c r="AK26" s="50"/>
-      <c r="BE26" s="366"/>
-      <c r="BF26" s="345"/>
+      <c r="BE26" s="178"/>
+      <c r="BF26" s="224"/>
       <c r="BG26" s="153" t="s">
         <v>25</v>
       </c>
       <c r="BH26" s="131" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="5:60" ht="330" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E27" s="329"/>
-      <c r="F27" s="165"/>
+      <c r="E27" s="257"/>
+      <c r="F27" s="218"/>
       <c r="G27" s="52" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
       <c r="H27" s="79" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
       <c r="AG27" s="50"/>
       <c r="AH27" s="105"/>
       <c r="AK27" s="50"/>
     </row>
     <row r="28" spans="5:60" ht="327.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="163" t="s">
-        <v>540</v>
-      </c>
-      <c r="F28" s="165" t="s">
-        <v>541</v>
+      <c r="E28" s="217" t="s">
+        <v>503</v>
+      </c>
+      <c r="F28" s="218" t="s">
+        <v>504</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="H28" s="79" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="AG28" s="50"/>
       <c r="AH28" s="105"/>
     </row>
-    <row r="29" spans="5:60" ht="195.75" x14ac:dyDescent="0.4">
-      <c r="E29" s="163"/>
-      <c r="F29" s="165"/>
+    <row r="29" spans="5:60" ht="152.25" x14ac:dyDescent="0.4">
+      <c r="E29" s="217"/>
+      <c r="F29" s="218"/>
       <c r="G29" s="52" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H29" s="79" t="s">
-        <v>545</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="5:60" ht="213.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E30" s="163"/>
-      <c r="F30" s="165"/>
+      <c r="E30" s="217"/>
+      <c r="F30" s="218"/>
       <c r="G30" s="52" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="H30" s="79" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="U30" s="50"/>
       <c r="W30" s="50"/>
@@ -14279,39 +14265,39 @@
       <c r="Y30" s="50"/>
     </row>
     <row r="31" spans="5:60" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E31" s="163" t="s">
-        <v>548</v>
-      </c>
-      <c r="F31" s="165" t="s">
-        <v>549</v>
+      <c r="E31" s="217" t="s">
+        <v>511</v>
+      </c>
+      <c r="F31" s="218" t="s">
+        <v>512</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="H31" s="79" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
       <c r="U31" s="50"/>
     </row>
     <row r="32" spans="5:60" ht="206.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E32" s="163"/>
-      <c r="F32" s="165"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="218"/>
       <c r="G32" s="52" t="s">
-        <v>552</v>
+        <v>514</v>
       </c>
       <c r="H32" s="79" t="s">
-        <v>553</v>
+        <v>515</v>
       </c>
       <c r="U32" s="50"/>
     </row>
     <row r="33" spans="5:29" ht="234.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E33" s="163"/>
-      <c r="F33" s="165"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="218"/>
       <c r="G33" s="52" t="s">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="H33" s="79" t="s">
-        <v>555</v>
+        <v>517</v>
       </c>
       <c r="U33" s="50"/>
       <c r="W33" s="50"/>
@@ -14321,17 +14307,17 @@
       <c r="AC33" s="50"/>
     </row>
     <row r="34" spans="5:29" ht="234.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E34" s="163" t="s">
-        <v>556</v>
-      </c>
-      <c r="F34" s="165" t="s">
-        <v>557</v>
+      <c r="E34" s="217" t="s">
+        <v>518</v>
+      </c>
+      <c r="F34" s="218" t="s">
+        <v>519</v>
       </c>
       <c r="G34" s="132" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
       <c r="H34" s="79" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="U34" s="50"/>
       <c r="W34" s="50"/>
@@ -14341,13 +14327,13 @@
       <c r="AC34" s="50"/>
     </row>
     <row r="35" spans="5:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E35" s="163"/>
-      <c r="F35" s="165"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="218"/>
       <c r="G35" s="52" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="H35" s="79" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="U35" s="50"/>
       <c r="W35" s="50"/>
@@ -14357,13 +14343,13 @@
       <c r="AC35" s="50"/>
     </row>
     <row r="36" spans="5:29" ht="201" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E36" s="164"/>
-      <c r="F36" s="166"/>
+      <c r="E36" s="371"/>
+      <c r="F36" s="372"/>
       <c r="G36" s="128" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="H36" s="129" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="U36" s="50"/>
       <c r="W36" s="50"/>
@@ -14372,13 +14358,7 @@
       <c r="Z36" s="105"/>
       <c r="AC36" s="50"/>
     </row>
-    <row r="37" spans="5:29" ht="201" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G37" s="128" t="s">
-        <v>562</v>
-      </c>
-      <c r="H37" s="129" t="s">
-        <v>563</v>
-      </c>
+    <row r="37" spans="5:29" ht="201" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U37" s="50"/>
       <c r="W37" s="50"/>
       <c r="X37" s="105"/>
@@ -14566,6 +14546,136 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA9:BA10"/>
+    <mergeCell ref="I13:I20"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="R8:R11"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="AD6:AD8"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="BI3:BI5"/>
+    <mergeCell ref="BI11:BI12"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="Q8:Q11"/>
+    <mergeCell ref="BG3:BH4"/>
+    <mergeCell ref="G6:H9"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="AO5:AO7"/>
+    <mergeCell ref="AP5:AP7"/>
+    <mergeCell ref="BF5:BF9"/>
+    <mergeCell ref="BE5:BE9"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O7:P10"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BJ3:BJ5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AE3:AF5"/>
+    <mergeCell ref="AM3:AN9"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AS3:AS9"/>
+    <mergeCell ref="AT3:AT9"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BJ6:BJ10"/>
+    <mergeCell ref="BA7:BA8"/>
+    <mergeCell ref="BB7:BB8"/>
+    <mergeCell ref="AW4:AW7"/>
+    <mergeCell ref="AX4:AX7"/>
+    <mergeCell ref="BJ11:BJ12"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="AW12:AW14"/>
+    <mergeCell ref="AX12:AX14"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="AY15:AZ15"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="V9:V12"/>
+    <mergeCell ref="BB9:BB10"/>
+    <mergeCell ref="Y10:Y12"/>
+    <mergeCell ref="Z10:Z12"/>
+    <mergeCell ref="BF10:BF19"/>
+    <mergeCell ref="AS11:AS13"/>
+    <mergeCell ref="AT11:AT13"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="U16:U18"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="BI6:BI10"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="AU17:AV17"/>
+    <mergeCell ref="AI18:AJ21"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F14:F21"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BF25:BF26"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="BE10:BE19"/>
+    <mergeCell ref="BE20:BE24"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="BF20:BF24"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AG8:AG13"/>
+    <mergeCell ref="AH8:AH13"/>
+    <mergeCell ref="AW8:AW11"/>
+    <mergeCell ref="AX8:AX11"/>
     <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="BG1:BH1"/>
     <mergeCell ref="A1:B1"/>
@@ -14590,136 +14700,6 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F14:F21"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BF25:BF26"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="BE10:BE19"/>
-    <mergeCell ref="BE20:BE24"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="BF20:BF24"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AG8:AG13"/>
-    <mergeCell ref="AH8:AH13"/>
-    <mergeCell ref="AW8:AW11"/>
-    <mergeCell ref="AX8:AX11"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="AU17:AV17"/>
-    <mergeCell ref="AI18:AJ21"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="BJ11:BJ12"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="AW12:AW14"/>
-    <mergeCell ref="AX12:AX14"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="AY15:AZ15"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="V9:V12"/>
-    <mergeCell ref="BB9:BB10"/>
-    <mergeCell ref="Y10:Y12"/>
-    <mergeCell ref="Z10:Z12"/>
-    <mergeCell ref="BF10:BF19"/>
-    <mergeCell ref="AS11:AS13"/>
-    <mergeCell ref="AT11:AT13"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="U16:U18"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BJ3:BJ5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AE3:AF5"/>
-    <mergeCell ref="AM3:AN9"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AS3:AS9"/>
-    <mergeCell ref="AT3:AT9"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BJ6:BJ10"/>
-    <mergeCell ref="BA7:BA8"/>
-    <mergeCell ref="BB7:BB8"/>
-    <mergeCell ref="AW4:AW7"/>
-    <mergeCell ref="AX4:AX7"/>
-    <mergeCell ref="BI6:BI10"/>
-    <mergeCell ref="BG3:BH4"/>
-    <mergeCell ref="G6:H9"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="AO5:AO7"/>
-    <mergeCell ref="AP5:AP7"/>
-    <mergeCell ref="BF5:BF9"/>
-    <mergeCell ref="BE5:BE9"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="BI3:BI5"/>
-    <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O7:P10"/>
-    <mergeCell ref="Q8:Q11"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA9:BA10"/>
-    <mergeCell ref="I13:I20"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="R8:R11"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="AD6:AD8"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="E31:E33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="13" fitToWidth="3" fitToHeight="3" orientation="portrait" r:id="rId1"/>
